--- a/data/input_excel/IEEE_toxicity_detector.xlsx
+++ b/data/input_excel/IEEE_toxicity_detector.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,11 @@
           <t>Automated filtering of toxic conversations may help an Open-source software (OSS) community to maintain healthy interactions among the project participants. Although, several general purpose tools exist to identify toxic contents, those may incorrectly flag some words commonly used in the Software Engineering (SE) context as toxic (e.g., `junk', `kill', and `dump') and vice versa. To encounter this challenge, an SE specific tool has been proposed by the CMU Strudel Lab (referred as the `STRUDEL' hereinafter) by combining the output of the Perspective API with the output from a customized version of the Stanford's Politeness detector tool. However, since STRUDEL's evaluation was very limited with only 654 SE text, its practical applicability is unclear. Therefore, this study aims to empirically evaluate the Strudel tool as well as four state-of-the-art general purpose toxicity detectors on a large scale SE dataset. On this goal, we empirically developed a rubric to manually label toxic SE interactions. Using this rubric, we manually labeled a dataset of 6,533 code review comments and 4,140 Gitter messages. The results of our analyses suggest significant degradation of all tools' performances on our datasets. Those degradations were significantly higher on our dataset of formal SE communication such as code review than on our dataset of informal communication such as Gitter messages. Two of the models from our study showed significant performance improvements during 10-fold cross validations after we retrained those on our SE datasets. Based on our manual investigations of the incorrectly classified text, we have identified several recommendations for developing an SE specific toxicity detector.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Degradation;Toxicology;Detectors;Switches;Tools;Software reliability;Software engineering;toxicity;chat;code review;developer communication;benchmark;rubric</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>10.1109/APSEC51365.2020.00030</t>
@@ -539,7 +543,11 @@
           <t>FLASH radiation therapy using an ultrahigh dose-rate beam is found to eradicate tumours whilst significantly reducing radiation-induced tissue toxicity. A real-time dosimetry system is required for the technique to be implemented clinically and for further preclinical studies. This study aimed to optimize the design of scintillating detectors using inorganic materials for real-time dosimetry in ultrahigh dose-rate radiation applications. Inorganic scintillator detectors were fabricated using phosphor-based scintillating materials (Gd2O2S:Tb, La2O2S:Tb, and La2O2S:Eu) coupled with optical fibers. The initial results in ultrahigh dose-rate x-ray irradiation showed excellent linearity with signal independent of the dose rate and dose delivered. A hyperspectral approach is adopted in this study to account for the stem effect that occurs within the high energy typically used in radiotherapy.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Optical fibers;Scintillators;Toxicology;Powders;Linearity;Detectors;Real-time systems;real-time dosimetry;scintillating detectors;optical fiber sensors;FLASH</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>10.1109/SENSORS47087.2021.9639825</t>
@@ -554,88 +562,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
+          <t>2016 IEEE Nuclear Science Symposium, Medical Imaging Conference and Room-Temperature Semiconductor Detector Workshop (NSS/MIC/RTSD)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rectal Toxicity Prediction in Prostate Cancer Radiation Therapy Using CT Radiomic and 3D Dose Distribution Dosomic Features</t>
+          <t>MONDO: A neutron tracker for particle therapy secondary emission measurements</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Radiomics and dosiomics are new and upcoming areas of medical imaging that require extracting numerous quantitative features from medical images and radiation dose data. In this study, we investigated rectum toxicity prediction in prostate cancer by using 3D dose distribution (DD) dosomic and computed tomography (CT) radiomic features. Our study consisted of 60 patients with prostate cancer with CT and DD images. An experienced radiation oncologist segmented the rectum, and radiomic and dosomic features were extracted from CT and DD images. Four different feature selections (FS) and five classifiers were applied to the training dataset and evaluated on the testing dataset. The performance of the model was evaluated with Area Under Curve (AUC), accuracy (ACC), sensitivity (SEN), and specificity (SPE). In DD dosiomics features, the XGB classifier with the MRMR algorithm had the highest performance with ACC=0.84, SEN=0.79, and SPE=0.86. In CT radiomic features, the RF classifier with the ANOVA algorithm is another best-performance model with ACC=0.85, SEN=0.65, and SPE=0.92. Finally, in combining radiomic and dosomic features, the MLP classifier with ANOVA had ACC=0.75, SEN=0.62, and SPE=0.79. The dosiomics and radiomics approach applied to 3D DD and CT images could predict rectal toxicity in prostate cancer.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>In Particle Therapy, cancer treatments are performed using accelerated charged particles whose high irradiation precision and conformity permit to destroy the tumour while sparing the surrounding healthy tissues. Several secondary particles are produced during the treatments mainly photons, protons and neutrons. The reduced attenuation length of neutrons yields a secondary particle sample that is larger in number when compared to photons and charged particles. Since neutrons can release a significant dose far away from the tumour region, a precise measurement of their flux, production energy and angle distributions is eagerly needed in order to improve the Treatment Planning Systems (TPS) software, so to properly take into account not only the normal tissue toxicity in the target region, but also the risk of late complications in the whole body. The MONDO (MOnitor for Neutron Dose in hadrOntherapy) project addresses the technical challenges posed by a neutron detector aiming for high detection efficiency and good backtracking precision. The main goal of the project is to develop a tracking detector targeting fast and ultra-fast secondary neutrons based on the reconstruction of two consequent elastic scattering interactions of a neutron with a target material. By reconstructing the recoiling protons, it is hence possible to measure the energy and incoming direction of the neutron using different therapeutic beams (protons, 12C ions and possibly 4He and 16O ions). The detector will be composed by a tracker realized with squared scintillating fibres and read out by a dedicated CMOS-based digital SPAD array detector. The first experimental results of a tracker demonstrator are here presented.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Neutrons;Detectors;Protons;Photonics;Prototypes;Medical treatment;Production</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.1109/NSSMICRTSD49126.2023.10338418</t>
+          <t>10.1109/NSSMIC.2016.8069401</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sadati, E., Hashemi, B., Mahdavi, S.R., Nikoufar, A., Mofid, B., Abdollahi, H., Hajianfar, G., Shiri, I., Zaidi, H.</t>
+          <t>Gasparini, L., Mirabelli, R., Patera, V., Pinci, D., Sarti, A., Sciubba, A., Spiriti, E., Stoppa, D., Marafini, M.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019 IEEE Nuclear Science Symposium and Medical Imaging Conference (NSS/MIC)</t>
+          <t>SENSORS, 2003 IEEE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Study of the Coincidence Time Resolution of New Perovskite Bulk Crystals</t>
+          <t>Reproducibility of measurement of organophosphorous pesticides toxicity</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>651-655 Vol.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Compared to scintillator based PET detectors, semiconductor detectors tend to provide excellent energy and spatial resolution. However, due to the relatively slow charge carrier collection time limited by the carrier drift velocity, semiconductor based detectors have poor time resolution in the range of several nanoseconds or greater. Possibilities exist to collect prompt photons emitted from certain semiconductor materials in order to greatly improve the timing capability. In this work, we studied the prompt photon emission property and fast timing capability of two new perovskite semiconductor materials, CsPbCl3 and CsPbBr3, and compared them with TlBr, which has been previously studied for its Cerenkov emission property. The coincidence time resolution (CTR) acquired between a 3 × 3 × 3 mm3 semiconductor sample crystal and a 3 × 3 × 3 mm3 reference LYSO crystal are 238 ± 16 ps, 468 ± 55 ps and 384 ± 31 ps for CsPbCl3, CsPbBr3, and TlBr respectively, when the LYSO crystal was only triggered on photoelectric events. When we lowered the trigger level and allowed the LYSO crystal to be triggered on all events including Compton scattering, we acquired CTR of 281 ± 17ps, 499 ± 77ps and 422 ± 46ps for CsPbCt3, CsPbBr3, and TlBr respectively. Combined with the easily scalable crystal growth process, relatively low cost, low toxicity, and high energy resolution (around 3.8% at 662keV), we conclude that CsPbCl3 and CsPbBr3 could be exceptional next generation candidates as semiconductor PET detector materials.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Fast detection of pesticide toxicity in the field conditions is very important in many aspects (pesticide storage, price of one test etc.). The measurement uses principle of an artificial synapse (AS) and inhibition of an enzyme Acetylcholinesterase (AChE). The AS is a very effective detector of the pesticide detector. This information is very different from classical analytic method data. The enzyme is sensitive to many external influences and its function is significantly influenced by immobilization process. Therefore properties of the sensor have to be measured without AChE at first. This process is called input control of the sensor. The reproducibility of electrochemical detector was studied first using hydrogen peroxide and second ferri-ferrokyanide redox couple. Longterm stability and reproducibility of preparation of enzymatic layer were studied. Cell data was evaluated statistically. This article describes measurement on AS and determination properties of electrochemical sensor before immobilization of enzymes by hydrogen peroxide.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproducibility of results;Biosensors;Testing;Biochemistry;Sensor phenomena and characterization;Detectors;Biomembranes;Performance analysis;Electrodes;Electrical capacitance tomography</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.1109/NSS/MIC42101.2019.9059716</t>
+          <t>10.1109/ICSENS.2003.1279018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tao, Li, He, Yihui, Kanatzidis, Mercouri G., Levin, Craig S.</t>
+          <t>Fujcik, K., Vrba, R., Prasek, J., Grosmanova, Z., Krejci, J.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
+          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
+          <t>Rectal Toxicity Prediction in Prostate Cancer Radiation Therapy Using CT Radiomic and 3D Dose Distribution Dosomic Features</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,188 +661,212 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Radiomics and dosiomics are new and upcoming areas of medical imaging that require extracting numerous quantitative features from medical images and radiation dose data. In this study, we investigated rectum toxicity prediction in prostate cancer by using 3D dose distribution (DD) dosomic and computed tomography (CT) radiomic features. Our study consisted of 60 patients with prostate cancer with CT and DD images. An experienced radiation oncologist segmented the rectum, and radiomic and dosomic features were extracted from CT and DD images. Four different feature selections (FS) and five classifiers were applied to the training dataset and evaluated on the testing dataset. The performance of the model was evaluated with Area Under Curve (AUC), accuracy (ACC), sensitivity (SEN), and specificity (SPE). In DD dosiomics features, the XGB classifier with the MRMR algorithm had the highest performance with ACC=0.84, SEN=0.79, and SPE=0.86. In CT radiomic features, the RF classifier with the ANOVA algorithm is another best-performance model with ACC=0.85, SEN=0.65, and SPE=0.92. Finally, in combining radiomic and dosomic features, the MLP classifier with ANOVA had ACC=0.75, SEN=0.62, and SPE=0.79. The dosiomics and radiomics approach applied to 3D DD and CT images could predict rectal toxicity in prostate cancer.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Training;Toxicology;Three-dimensional displays;Computed tomography;Feature extraction;Classification algorithms;Prostate cancer</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.1109/ESEM56168.2023.10304855</t>
+          <t>10.1109/NSSMICRTSD49126.2023.10338418</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
+          <t>Sadati, E., Hashemi, B., Mahdavi, S.R., Nikoufar, A., Mofid, B., Abdollahi, H., Hajianfar, G., Shiri, I., Zaidi, H.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020 International Conference on Information and Communication Technology Convergence (ICTC)</t>
+          <t>IEEE Symposium Conference Record Nuclear Science 2004.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A study on the design and manufacture power systems of non-contact chemical agent detectors based on the semiconductor laser</t>
+          <t>Polycrystalline diamond detectors compared with silicon X-ray dosimeters for clinical use</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>690-694</t>
+          <t>4445-4447</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Detection of chemical agents is important because some chemical agents have high toxic effects and can be used as chemical weapons. In this case, the power system plays an important role for stable power distribution of the detection device. In this study, a semiconductor laser-based non-contact chemical agent detection device power system was designed and fabricated.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Physical and metering characteristics of three room temperature X-ray dosimeters used in clinical applications, PTW diamond, Thompson MOSFET and Scanditronix silicon diode are compared with polycrystalline diamond X-ray detectors. Development of dosimeters based on natural diamond carried out by PTW have provided superior characteristics with respect to other solid state silicon devices such diodes or MOSFETs. Radiation hardness, soft tissue equivalence, lack of toxicity, negligible energy dependence and optimal sensitivity and reproducibility, have made PTW the ideal metering device for clinical dosimetry. However general use of natural dosimeters have been hindered by their rarity, very high cost and unpredictable electronic behavior due to lack of control on impurity content and crystal defects. Therefore, there have been a growing use of silicon dosimeters especially for on line configuration and in vivo dosimetry. However, both MOSFET and silicon diode do not appear to be ideal for such application for their short lifetime. Detectors based on polycrystalline diamonds seem to be the best candidate for future dosimetry since they have most of the characteristics of natural diamonds at potentially much lower cost. In this context, the performances of a laboratory made polycrystalline diamond device are compared to those of the three, PTW, Scanditronix and Thomson commercial dosimeters.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>X-ray detection;X-ray detectors;Diodes;Dosimetry;MOSFET circuits;Costs;Temperature;Solid state circuits;Silicon devices;Biological tissues</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.1109/ICTC49870.2020.9289388</t>
+          <t>10.1109/NSSMIC.2004.1466871</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Park, Jae-Hyoun, Jang, Yea Sol, Gon Seo, Yong, Yoon, Hyung-Do, Lee, Jong-Won</t>
+          <t>Ciancaglioni, I., Consorti, R., Rossi, M.C., Conte, G.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024 IEEE Nuclear Science Symposium (NSS), Medical Imaging Conference (MIC) and Room Temperature Semiconductor Detector Conference (RTSD)</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Study of Annihilation Photon Pair Coincidence Time Resolution Using Prompt Photon Emissions in New Perovskite Bulk Crystals</t>
+          <t>Exploring Lead-Free Perovskite-Inspired Materials as Pressed Pellets for X-ray Detector Application</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>804-810</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Semiconductor-based radiation detectors can typically achieve better energy and spatial resolution when compared to scintillator-based detectors. However, if used for positron emission tomography (PET), semiconductor-based detectors normally cannot achieve excellent coincidence time resolution (CTR), due to the relatively slow charge carrier collection time limited by the carrier drift velocity. If we can collect prompt photons emitted from certain semiconductor materials, there are possibilities that the CTR can be greatly improved, and time-of-flight (ToF) capability can be achieved. In this article, we studied the prompt photon emission (mainly, the Cherenkov luminescence) property and fast timing capability of cesium lead chloride (CsPbCl3) and cesium lead bromide (CsPbBr3), which are two new perovskite semiconductor materials. We also compared their performance with thallium bromide (TlBr), another semiconductor material that has already been studied for timing using its Cherenkov emissions. We performed coincidence measurements using silicon photomultipliers (SiPMs), and the full-width-at-half-maximum (FWHM) CTR acquired between a semiconductor sample crystal and a reference lutetium-yttrium oxyorthosilicate (LYSO) crystal (both with dimensions of $3\times 3\times 3\,\mathrm {mm^{3}}$ ) is ${\mathbf {248\pm 8~ps}}$ for CsPbCl3, ${\mathbf {440\pm 31~ps}}$ for CsPbBr3, and ${\mathbf {343\pm 16~ps}}$ for TlBr. Deconvolving the contribution to CTR from the reference LYSO crystal (around 100 ps) and then multiplying by the square root of 2, the estimated CTR between two of the same semiconductor crystals was calculated as ${\mathbf {324\pm 10~ps}}$ for CsPbCl3, ${\mathbf {606\pm 43~ps}}$ for CsPbBr3, and ${\mathbf {464\pm 22~ps}}$ for TlBr. This ToF capable CTR performance combined with an easily scalable crystal growth process, low cost and toxicity, as well as good energy resolution lead us to the conclusion that new perovskite materials, such as CsPbCl3 and CsPbBr3 could be excellent candidates as PET detector materials.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Highly sensitive X-ray detectors based on materials containing high atomic-number elements, such as metal halide perovskites (MHPs), would enable reduced dose rates, which is vital for medical applications. However, the instability and the potential toxicity of conventional lead-based MHPs constitute a challenge for commercialization, which prompts the use of alternative perovskite inspired materials based on less toxic elements, such as bismuth and silver to replace lead. Furthermore, to enable large-area, highperformance, detectors, it is paramount to employ methods to produce high-quality, millimetre-thick, layers of the detector material, which currently remains a challenge for MHPs. In this work, different lead-free, perovskite-inspired, materials, which include fully inorganic compounds, such as the double perovskite Cs2 AgBiBr6, as well as novel organic-inorganic ones were investigated as X-ray detectors. The materials were synthesized using ball-milling and polycrystalline pellets produced through scalable cold isostatic-pressing were used to assemble X-ray detectors. X-ray-based spectroscopic and diffraction methods were used to determine the composition and structural properties of the pellets. The detector performance was evaluated by measuring the photocurrent response under X-ray illumination. The results show that the selection of composition, additives, different post-treatment methods of the pellets as well as device architecture significantly affect the properties, potentially improving detector performance for various applications. The obtained sensitivities and detection limits are comparable to or even higher than those reported for similar perovskite-inspired materials. The work demonstrates that the materials are very promising, and could thus pave the way for future application of these materials as X-ray detectors.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Performance evaluation;Silver;Semiconductor device measurement;X-ray detectors;Toxicology;Sensitivity;Semiconductor detectors</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.1109/TRPMS.2022.3149992</t>
+          <t>10.1109/NSS/MIC/RTSD57108.2024.10655157</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tao, Li, He, Yihui, Kanatzidis, Mercouri G., Levin, Craig S.</t>
+          <t>Maslyanchuk, O. L., Starkholm, A., Unger, E., Al-Sabbagh, D., Emmerling, F., Kloo, L., Svensson, P. H., Sarisozen, S., Neher, D., Lang, F.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
+          <t>2019 IEEE Nuclear Science Symposium and Medical Imaging Conference (NSS/MIC)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fiber-coupled GAGG scintillators for real-time small-field dosimetry in FLASH proton therapy</t>
+          <t>Study of the Coincidence Time Resolution of New Perovskite Bulk Crystals</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FLASH radiation therapy (RT) has been recently proposed as a novel modality that features reduced toxicity to healthy tissue while maintaining the same antitumor efficacy as conventional radiotherapy. FLASH-RT is characterized by the delivery of ultra-high dose rates (&gt; 40 Gy/s) in sub-second treatment times. Real-time beam monitoring and dosimetry for FLASH are challenging and new approaches have been proposed to address this issue. Along this line, novel detectors based on fiber-coupled scintillators are under development at the University of Bern. This work reports on the characterization of a detector prototype made of a sample of Cerium-doped Gadolinium Aluminum Gallium Garnet (Ce:GAGG) of size (0.5×0.5×2) mm3 coupled to an optical fiber. The scintillation light pulses are driven to a single photon detector and to a multi-channel scaler operated at 10 kHz sampling rate. Functional tests have been performed at the Francis H. Burr Proton Therapy Center at the Massachusetts General Hospital (Boston, MA) with 227.5 MeV proton beams. The detector response was found to be linear in the range 4-120 Gy/s (maximum dose rate available). We compared the GAGG depth dose curve with that of a reference ion chamber and of a rectifier diode. We observed a reduction of the GAGG signal which is likely due to quenching effects and loss of in-scattering contribution in the sub-millimeter volume of the scintillator, and is currently under investigation. Overall, the proposed system has been found to be suitable for real-time ultra-high dose rate small field dosimetry and it is promising for quality assurance, beam monitoring and in-vivo dosimetry for FLASH therapy.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Compared to scintillator based PET detectors, semiconductor detectors tend to provide excellent energy and spatial resolution. However, due to the relatively slow charge carrier collection time limited by the carrier drift velocity, semiconductor based detectors have poor time resolution in the range of several nanoseconds or greater. Possibilities exist to collect prompt photons emitted from certain semiconductor materials in order to greatly improve the timing capability. In this work, we studied the prompt photon emission property and fast timing capability of two new perovskite semiconductor materials, CsPbCl3 and CsPbBr3, and compared them with TlBr, which has been previously studied for its Cerenkov emission property. The coincidence time resolution (CTR) acquired between a 3 × 3 × 3 mm3 semiconductor sample crystal and a 3 × 3 × 3 mm3 reference LYSO crystal are 238 ± 16 ps, 468 ± 55 ps and 384 ± 31 ps for CsPbCl3, CsPbBr3, and TlBr respectively, when the LYSO crystal was only triggered on photoelectric events. When we lowered the trigger level and allowed the LYSO crystal to be triggered on all events including Compton scattering, we acquired CTR of 281 ± 17ps, 499 ± 77ps and 422 ± 46ps for CsPbCt3, CsPbBr3, and TlBr respectively. Combined with the easily scalable crystal growth process, relatively low cost, low toxicity, and high energy resolution (around 3.8% at 662keV), we conclude that CsPbCl3 and CsPbBr3 could be exceptional next generation candidates as semiconductor PET detector materials.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Crystals;Detectors;Timing;Photonics;Energy resolution;Semiconductor device measurement;Spatial resolution;ToF-PET;semiconductor detectors;perovskite materials;CsPbCl3;CsPbBr3;Cerenkov radiation;radiation- induced fast photoluminescence</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.1109/NSSMICRTSD49126.2023.10338316</t>
+          <t>10.1109/NSS/MIC42101.2019.9059716</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Casolaro, P., Nesteruk, K. P., Cascio, E., Clasie, B., Dellepiane, G., Gottstein, A., Mateu, I., Scampoli, P., Schuemann, J., Braccini, S.</t>
+          <t>Tao, Li, He, Yihui, Kanatzidis, Mercouri G., Levin, Craig S.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019 4th International Conference on Internet of Things: Smart Innovation and Usages (IoT-SIU)</t>
+          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IoT BasedSmart Waste Management System: India prospective</t>
+          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>For building smart cities there is requirement of such a smart system which monitors the dustbin and providesits real time status. In present scenario Municipal Corporations in India doesn't get real time information about the dustbins. In this concern, we are implementing a system based on Internet of Things (IoT) that can send a message to corporation about the overflow and toxicity level of the dustbins. A website is also developed to supervise the data related to the dustbins. Message is sent using GSM module to the mobile phone and data related to the dustbin status is updated on the website. At this website citizens can also submit complaints related to dustbin or waste management. In recommended system, Arduino is used as a microcontroller to interface between GSM/GPRS module with sensors. Ultrasonic sensor and gas sensor are used for measurement of dustbin level and toxicity respectively.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Toxicology;Codes;Detectors;Oral communication;Transformers;Software;Product design;toxicity;span detection;software engineering;natural language processing;explainability</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.1109/IoT-SIU.2019.8777698</t>
+          <t>10.1109/ESEM56168.2023.10304855</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Singhvi, Rishabh Kumar, Lohar, Roshan Lal, Kumar, Ashok, Sharma, Ranjeet, Sharma, Lakhan Dev, Saraswat, Ritesh Kumar</t>
+          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020 IEEE 15th International Conference on Solid-State &amp; Integrated Circuit Technology (ICSICT)</t>
+          <t>2009 3rd International Conference on Bioinformatics and Biomedical Engineering</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Progress of Lead-Free Halide Perovskite X-ray Detectors</t>
+          <t>Potential Toxicity of Chronic Creatine Supplementation in Mice</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -836,339 +876,371 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lead halide perovskite for radiation detection still faces significant challenges despite its exciting progress. The main issues which hinder further development are the toxicity problem of lead and the intrinsic instability for volatile organic parts in lead-based perovskites. Therefore, searching for low-toxic and intrinsically stable perovskite materials have drawn a great attention from the public. In this review, lead-free perovskites are divided into two types: double perovskites type as A2MIMIIX6 and low-dimensional perovskites type as A3W2X9. The synthesis methods of these lead-free perovskites are discussed and the performance on X-ray detection are accordingly summarized. Moreover, a brief outlook on the future development of lead-free perovskites in radiation detection is proposed.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Creatine is alleged to be a popular nutrition to enhance sports performance. It can be metabolized to methylamine, which is further converted to formaldehyde, hydrogen peroxide and ammonium by semicarbazied-sensitive amine oxidases (SSAO). Until now, there is no scientific available data for demonstration the long-term health risks of chronic creatine ingestion. In this study, we demonstrated that after chronic oral administration of creatine to mice, the level of methylamine and formaldehyde in urine were increased, SSAO activity of serum and tissue were increased simultaneously. SSAO inhibitor (2-bromoethylamine hydrobromide) could substantially increase the methylamine level and decrease the formaldehyde content respectively. A novel high-performance liquid chromatography (HPLC) and electrospray ionization (ESI) mass spectrometry method for the determination of SSAO activity was developed for the first time. Potential toxicity after chronic creatine administration was discussed according to the increase of toxic products content and SSAO activity. To our knowledge, this is the first report on the research of relationship between SSAO and creatine.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mice;Biochemistry;Animals;Detectors;Inhibitors;Heart;Blood;Impurities;Chemical analysis;Analysis of variance</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.1109/ICSICT49897.2020.9278179</t>
+          <t>10.1109/ICBBE.2009.5163209</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Zhang, Hainan, Dun, Guanhua, Qiao, Yancong, Xie, Dan, Ren, Tian-Ling</t>
+          <t>Wang, Lin, Xiao, Shengyuan, Li, Yujuan, Wang, Lu, Che, Baoquan, Zhao, Xuan, Deng, Yulin</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SENSORS, 2003 IEEE</t>
+          <t>2020 International Conference on Information and Communication Technology Convergence (ICTC)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reproducibility of measurement of organophosphorous pesticides toxicity</t>
+          <t>A study on the design and manufacture power systems of non-contact chemical agent detectors based on the semiconductor laser</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>651-655 Vol.1</t>
+          <t>690-694</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fast detection of pesticide toxicity in the field conditions is very important in many aspects (pesticide storage, price of one test etc.). The measurement uses principle of an artificial synapse (AS) and inhibition of an enzyme Acetylcholinesterase (AChE). The AS is a very effective detector of the pesticide detector. This information is very different from classical analytic method data. The enzyme is sensitive to many external influences and its function is significantly influenced by immobilization process. Therefore properties of the sensor have to be measured without AChE at first. This process is called input control of the sensor. The reproducibility of electrochemical detector was studied first using hydrogen peroxide and second ferri-ferrokyanide redox couple. Longterm stability and reproducibility of preparation of enzymatic layer were studied. Cell data was evaluated statistically. This article describes measurement on AS and determination properties of electrochemical sensor before immobilization of enzymes by hydrogen peroxide.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Detection of chemical agents is important because some chemical agents have high toxic effects and can be used as chemical weapons. In this case, the power system plays an important role for stable power distribution of the detection device. In this study, a semiconductor laser-based non-contact chemical agent detection device power system was designed and fabricated.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Semiconductor lasers;Weapons;Power lasers;Power distribution;Detectors;Information and communication technology;Chemicals;Power system;Non-contact chemical agent detector;Semiconductor laser;Chemical agent</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.1109/ICSENS.2003.1279018</t>
+          <t>10.1109/ICTC49870.2020.9289388</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Fujcik, K., Vrba, R., Prasek, J., Grosmanova, Z., Krejci, J.</t>
+          <t>Park, Jae-Hyoun, Jang, Yea Sol, Gon Seo, Yong, Yoon, Hyung-Do, Lee, Jong-Won</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2009 3rd International Conference on Bioinformatics and Biomedical Engineering</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Cytotoxicity and OS-Mediated Toxicity of One Nanosize Titanium Dioxide</t>
+          <t>Study of Annihilation Photon Pair Coincidence Time Resolution Using Prompt Photon Emissions in New Perovskite Bulk Crystals</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>804-810</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>One kind of nanosize titanium dioxide (nano-TiO2) was successfully made through anodization of titanium in this study, and its cytotoxicity and OS-mediated toxicity was detected by MTT, SOD and MDA assay in vitro and in vivo. The results showed that high does (0.8, 1.6 mg/mL) of this nano-TiO2 can cause cytotoxicity and OS-mediated toxicity, and reverse dose-rate effect happened in the low and medium does (0.1, 0.2, 0.4 mg/mL) in the OS-mediated toxicity detection.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Semiconductor-based radiation detectors can typically achieve better energy and spatial resolution when compared to scintillator-based detectors. However, if used for positron emission tomography (PET), semiconductor-based detectors normally cannot achieve excellent coincidence time resolution (CTR), due to the relatively slow charge carrier collection time limited by the carrier drift velocity. If we can collect prompt photons emitted from certain semiconductor materials, there are possibilities that the CTR can be greatly improved, and time-of-flight (ToF) capability can be achieved. In this article, we studied the prompt photon emission (mainly, the Cherenkov luminescence) property and fast timing capability of cesium lead chloride (CsPbCl3) and cesium lead bromide (CsPbBr3), which are two new perovskite semiconductor materials. We also compared their performance with thallium bromide (TlBr), another semiconductor material that has already been studied for timing using its Cherenkov emissions. We performed coincidence measurements using silicon photomultipliers (SiPMs), and the full-width-at-half-maximum (FWHM) CTR acquired between a semiconductor sample crystal and a reference lutetium-yttrium oxyorthosilicate (LYSO) crystal (both with dimensions of $3\times 3\times 3\,\mathrm {mm^{3}}$ ) is ${\mathbf {248\pm 8~ps}}$ for CsPbCl3, ${\mathbf {440\pm 31~ps}}$ for CsPbBr3, and ${\mathbf {343\pm 16~ps}}$ for TlBr. Deconvolving the contribution to CTR from the reference LYSO crystal (around 100 ps) and then multiplying by the square root of 2, the estimated CTR between two of the same semiconductor crystals was calculated as ${\mathbf {324\pm 10~ps}}$ for CsPbCl3, ${\mathbf {606\pm 43~ps}}$ for CsPbBr3, and ${\mathbf {464\pm 22~ps}}$ for TlBr. This ToF capable CTR performance combined with an easily scalable crystal growth process, low cost and toxicity, as well as good energy resolution lead us to the conclusion that new perovskite materials, such as CsPbCl3 and CsPbBr3 could be excellent candidates as PET detector materials.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Crystals;Detectors;Photonics;Timing;Positron emission tomography;Perovskites;Oscilloscopes;Cesium lead bromide (CsPbBr₃);cesium lead chloride (CsPbCl₃);Cherenkov emission;coincidence time resolution (CTR);perovskite materials;radiation-induced fast photoluminescence;semiconductor detectors;time-of-flight (ToF) positron emission tomography (PET)</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10.1109/ICBBE.2009.5163586</t>
+          <t>10.1109/TRPMS.2022.3149992</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Yang, Xu, Xu, Xiao-yu, Xiao, Guo-qiang, Xiang, Xiao-ling</t>
+          <t>Tao, Li, He, Yihui, Kanatzidis, Mercouri G., Levin, Craig S.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SENSORS, 2006 IEEE</t>
+          <t>2024 IEEE Nuclear Science Symposium (NSS), Medical Imaging Conference (MIC) and Room Temperature Semiconductor Detector Conference (RTSD)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A Novel Combined Biomonitoring System for BOD Measurement and Toxicity Detection using Microbial Fuel Cells</t>
+          <t>First Measurements with On-Chip PET Detectors</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1247-1248</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Microbial fuel cell enriched with electrochemically-active bacteria using sludge was successfully applied as BOD and toxicity detection biosensors. The current from the microbial fuel cells was proportional to concentration up to 200 mg/L of BOD5 with high linearity. A microbial fuel cell could be also applied to a toxicity detection biosensor. An electric current signal change was observed in the presence of toxic substances (singular/complex) such as cadmium, lead, chromium(VI), mercury, cyanide, arsenic, PCB, organophosphorus and surfactant. By combining the principles of BOD measurement and toxicity detection, a novel biomonitoring system that could simultaneously monitor BOD concentration and the presence of toxic substances in aqueous system could be developed.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>This study presents the initial real-world evaluation of a dedicated On-Chip PET scanner designed for functional imaging of Organs-on-Chips (OOCs). OOCs provide a promising alternative to conventional in vitro and animal models for drug development, disease modeling, and toxicity testing. Our previous work has focused on optimizing the scanner’s design through simulations, developing deep-learning techniques for positron range correction, and demonstrating its capability to dynamically image OOCs. The On-Chip PET scanner consists of two detectors, each made up of a monolithic LYSO crystal optically coupled to four 8 x 8 SiPM arrays, which are individually read out by PETsys’ SiPM readout system. Following the ASICs calibration, several data acquisitions were conducted with the point source positioned at different locations within the field of view for 60 seconds each. Analysis of flood maps and energy spectra confirmed expected variations based on source positioning, demonstrating the functionality of the scanner. These preliminary results represent a first step towards enabling functional imaging for OOCs. Future work will involve further detector calibration and phantom measurements before transitioning to imaging actual OOC devices.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Temperature measurement;Semiconductor device measurement;Toxicology;Semiconductor detectors;Positrons;Optical imaging;System-on-chip</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.1109/ICSENS.2007.355855</t>
+          <t>10.1109/NSS/MIC/RTSD57108.2024.10656261</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kim, Mia, Park, Hyung Soo, Jin, Gil Ju, Cho, Won Hui, Lee, Dong Kwon, Hyun, Moon Sik, Choi, Chang Ho, Kim, Hyung Joo</t>
+          <t>Clement, C., Pagano, F., Pizzichemi, M., Terragni, G., Julio, M. Kruithof-de, Ziegler, S., Rominger, A., Auffray, E., Shi, K.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
+          <t>2019 4th International Conference on Internet of Things: Smart Innovation and Usages (IoT-SIU)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alpha-SPECT-mini: A Preclinical SPECT system Using Ultrahigh Energy Resolution CdTe detectors for Low-Dose Alpha Emitter Radiopharmaceutical Therapy Imaging</t>
+          <t>IoT BasedSmart Waste Management System: India prospective</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>In this work, we have developed the CdTe detector-based alpha-SPECT-mini system for preclinical studies. The system is designed to have ultrahigh energy resolution &lt;3keV on average and sensitivity to accommodate the low dose of the targeted alpha therapy applications in mice studies. Machine learning charge sharing reconstruction algorithms are used to achieve the best energy resolution and sensitivity simultaneously. We have performed the Derenzo resolution and Image Quality phantom studies with Tc-99m to evaluate the intrinsic resolution &lt;0.75mm and with Ac-225 to evaluate the multi-isotope imaging capabilities (Ac-225, Fr-221, Bi-213, Tl-209) of the system. Soon, we will also perform the in vivo mice imaging study to further evaluate the system performance for low dose imaging and to study the biological reaction of mice to Ac-225 and toxicity effects on surrounding healthy tissues.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>For building smart cities there is requirement of such a smart system which monitors the dustbin and providesits real time status. In present scenario Municipal Corporations in India doesn't get real time information about the dustbins. In this concern, we are implementing a system based on Internet of Things (IoT) that can send a message to corporation about the overflow and toxicity level of the dustbins. A website is also developed to supervise the data related to the dustbins. Message is sent using GSM module to the mobile phone and data related to the dustbin status is updated on the website. At this website citizens can also submit complaints related to dustbin or waste management. In recommended system, Arduino is used as a microcontroller to interface between GSM/GPRS module with sensors. Ultrasonic sensor and gas sensor are used for measurement of dustbin level and toxicity respectively.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Gas detectors;GSM;Acoustics;Real-time systems;Ultrasonic variables measurement;Waste management;Waste Management;IoT;Toxicity level;GSM/GPRS;Ultrasonic Sensor;Gas Sensor;Arduino;Microcontroller</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.1109/NSSMICRTSD49126.2023.10338639</t>
+          <t>10.1109/IoT-SIU.2019.8777698</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Yang, C., Zannoni, E. M., Cai, L., Wilson, M. D., Bastiaannet, R., Du, Y., Sgouros, G., Frey, E., Meng, L.J.</t>
+          <t>Singhvi, Rishabh Kumar, Lohar, Roshan Lal, Kumar, Ashok, Sharma, Ranjeet, Sharma, Lakhan Dev, Saraswat, Ritesh Kumar</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proceedings of OCEANS 2005 MTS/IEEE</t>
+          <t>2016 IEEE Nuclear Science Symposium, Medical Imaging Conference and Room-Temperature Semiconductor Detector Workshop (NSS/MIC/RTSD)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Broadband toxicity sensing for rapid surveys of drinking water storage facilities</t>
+          <t>Investigation of electron multiplication effect in optical property modulation-based radiation detection method for PET</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1448-1454 Vol. 2</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nekton Research has developed a novel, broad-band water toxicity detector and sampler for use on the Nekton Ranger AUV. This system can quickly survey drinking water reservoirs, in 3D, and provide early warning of toxic contamination. The novel element of the detector is an array of live clams that function as "canaries in a coal mine". When these highly sensitive filter feeders encounter water they deem toxic, they snap their shells shut and close down their feeding activities - a rapid reaction that can be utilized to trigger AUV response. Initial field trials and sensor characterization will be described as well as homeland security applications</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>In this paper, we further explore the optical property modulation-based method for ionizing radiation photon detection in PET as a potential new direction to dramatically improve the coincidence time resolution. We compare the performance of three detector crystals for this method including two types of cadmium telluride (CdTe) crystals and one bismuth silicon oxide (BSO) crystal under high bias voltages up to 3500V. We first show that the induced current flow in the detector crystal determines the strength of the optical property modulation signal due to ionization. A larger resistivity is favorable for reducing the dark current (noise) in the crystal and facilitates the detection of weak optical property modulation signals. In addition, we show that BSO is a potential candidate detector material. When biased at 3500 V, it has comparable modulation signal sensitivity as CdTe biased at 1000V, but with higher resistivity (lower noise), larger 511 keV photon attenuation coefficient, lower price, better crystal surface finish quality, and less toxicity. By studying the dependence of modulation signal amplitude on crystal bias voltage, we show that the modulation signal amplitude (induced by both UV laser diode and Ge-68 source) is linearly proportional to crystal bias voltage with a linear fit R factor of around 0.95. The modulation signal amplitude induced by UV laser diode irradiation increases from 0% to 2% (normalized to the average signal level) for both CdTe and BSO under crystal bias voltage from 0V to 3500V. The modulation signal amplitude induced by Ge-68 irradiation increases from 0% to 12% for CdTe under crystal bias voltage from 0V to 1500 V, and increases from 0% to 10% for BSO under crystal bias voltage from 0V to 3500 V. Therefore the electron multiplication effect (with high crystal bias) shows promise to significantly boost the modulation signal amplitude with the ultimate goal to achieve single 511 keV photon detection.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Crystals;Optical modulation;Optical sensors;Conductivity;Detectors;Photonics;ToF-PET;optical property modulation;cadmium telluride;bismuth silicon oxide;electron multiplication effect</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10.1109/OCEANS.2005.1639959</t>
+          <t>10.1109/NSSMIC.2016.8069554</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Moody, R.</t>
+          <t>Tao, Li, Daghighian, Henry M., Levin, Craig S.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TENCON 2018 - 2018 IEEE Region 10 Conference</t>
+          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Automated Chicken Manure Toxicity Level Reducer System Using Optimized Effective Microorganism (EM) Solution</t>
+          <t>Fiber-coupled GAGG scintillators for real-time small-field dosimetry in FLASH proton therapy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1403-1407</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Poultry industry has been always a part of the Philippines' agricultural sector being one of the top contributors in revenues in livestock. However, poultry farms oftentimes emit odors coming from chicken manure that can cause harmful effects to local residents and the chicken themselves. One solution to remedy this is the usage of effective microorganism (EM). EM is a low-cost, non-harmful, non-pathogenic, non-genetically modified solution commonly used for waste treatment. In this study, the researchers developed a system that automatically detects toxicity levels of gases and reduces it, together with the foul odor, using automatic spraying of activated EM solution. Spray schedule is also optimized using data analytics techniques. Results show satisfactory results reducing toxicity levels constantly on poultry houses where the system is implemented.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>FLASH radiation therapy (RT) has been recently proposed as a novel modality that features reduced toxicity to healthy tissue while maintaining the same antitumor efficacy as conventional radiotherapy. FLASH-RT is characterized by the delivery of ultra-high dose rates (&gt; 40 Gy/s) in sub-second treatment times. Real-time beam monitoring and dosimetry for FLASH are challenging and new approaches have been proposed to address this issue. Along this line, novel detectors based on fiber-coupled scintillators are under development at the University of Bern. This work reports on the characterization of a detector prototype made of a sample of Cerium-doped Gadolinium Aluminum Gallium Garnet (Ce:GAGG) of size (0.5×0.5×2) mm3 coupled to an optical fiber. The scintillation light pulses are driven to a single photon detector and to a multi-channel scaler operated at 10 kHz sampling rate. Functional tests have been performed at the Francis H. Burr Proton Therapy Center at the Massachusetts General Hospital (Boston, MA) with 227.5 MeV proton beams. The detector response was found to be linear in the range 4-120 Gy/s (maximum dose rate available). We compared the GAGG depth dose curve with that of a reference ion chamber and of a rectifier diode. We observed a reduction of the GAGG signal which is likely due to quenching effects and loss of in-scattering contribution in the sub-millimeter volume of the scintillator, and is currently under investigation. Overall, the proposed system has been found to be suitable for real-time ultra-high dose rate small field dosimetry and it is promising for quality assurance, beam monitoring and in-vivo dosimetry for FLASH therapy.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Optical fibers;Particle beams;Scintillators;Toxicology;Real-time systems;Dosimetry;Radiation therapy</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.1109/TENCON.2018.8650489</t>
+          <t>10.1109/NSSMICRTSD49126.2023.10338316</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Arago, Nilo M., Garcia, Teodinis P., Amado, Timothy M.</t>
+          <t>Casolaro, P., Nesteruk, K. P., Cascio, E., Clasie, B., Dellepiane, G., Gottstein, A., Mateu, I., Scampoli, P., Schuemann, J., Braccini, S.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2009 3rd International Conference on Bioinformatics and Biomedical Engineering</t>
+          <t>Summaries of Papers Presented at the Lasers and Electro-Optics. CLEO '02. Technical Diges</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Potential Toxicity of Chronic Creatine Supplementation in Mice</t>
+          <t>Magneto-optical phase enantiomeric detector</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>408-409 vol.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Creatine is alleged to be a popular nutrition to enhance sports performance. It can be metabolized to methylamine, which is further converted to formaldehyde, hydrogen peroxide and ammonium by semicarbazied-sensitive amine oxidases (SSAO). Until now, there is no scientific available data for demonstration the long-term health risks of chronic creatine ingestion. In this study, we demonstrated that after chronic oral administration of creatine to mice, the level of methylamine and formaldehyde in urine were increased, SSAO activity of serum and tissue were increased simultaneously. SSAO inhibitor (2-bromoethylamine hydrobromide) could substantially increase the methylamine level and decrease the formaldehyde content respectively. A novel high-performance liquid chromatography (HPLC) and electrospray ionization (ESI) mass spectrometry method for the determination of SSAO activity was developed for the first time. Potential toxicity after chronic creatine administration was discussed according to the increase of toxic products content and SSAO activity. To our knowledge, this is the first report on the research of relationship between SSAO and creatine.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Summary from only given. We have developed improved techniques for rapidly and sensitively screening potential medicines. These include the Faraday effect using a sinusoidally varying magnetic field, phase-sensitive detection, and optical-heterodyne detection. We call this set of techniques and the resulting device the magneto-optical phase enantiomeric detector (MOPED). Because chiral molecules on average exhibit greater Faraday effect than non-chiral molecules and our two detection methods are extremely sensitive and fast, these techniques provide increased sensitivity and decreased analysis time.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Phase detection;Magnetooptic effects;Magnetooptic devices;Faraday effect;Optical detectors;Biomedical optical imaging;Optical sensors;Motorcycles;Ultraviolet sources;Magnetic analysis</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10.1109/ICBBE.2009.5163209</t>
+          <t>10.1109/CLEO.2002.1034139</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Wang, Lin, Xiao, Shengyuan, Li, Yujuan, Wang, Lu, Che, Baoquan, Zhao, Xuan, Deng, Yulin</t>
+          <t>Gibbs, P., Kimmel, M., Bommarius, A., Trebino, R.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2016 IEEE Nuclear Science Symposium, Medical Imaging Conference and Room-Temperature Semiconductor Detector Workshop (NSS/MIC/RTSD)</t>
+          <t>2020 IEEE 15th International Conference on Solid-State &amp; Integrated Circuit Technology (ICSICT)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MONDO: A neutron tracker for particle therapy secondary emission measurements</t>
+          <t>Progress of Lead-Free Halide Perovskite X-ray Detectors</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>In Particle Therapy, cancer treatments are performed using accelerated charged particles whose high irradiation precision and conformity permit to destroy the tumour while sparing the surrounding healthy tissues. Several secondary particles are produced during the treatments mainly photons, protons and neutrons. The reduced attenuation length of neutrons yields a secondary particle sample that is larger in number when compared to photons and charged particles. Since neutrons can release a significant dose far away from the tumour region, a precise measurement of their flux, production energy and angle distributions is eagerly needed in order to improve the Treatment Planning Systems (TPS) software, so to properly take into account not only the normal tissue toxicity in the target region, but also the risk of late complications in the whole body. The MONDO (MOnitor for Neutron Dose in hadrOntherapy) project addresses the technical challenges posed by a neutron detector aiming for high detection efficiency and good backtracking precision. The main goal of the project is to develop a tracking detector targeting fast and ultra-fast secondary neutrons based on the reconstruction of two consequent elastic scattering interactions of a neutron with a target material. By reconstructing the recoiling protons, it is hence possible to measure the energy and incoming direction of the neutron using different therapeutic beams (protons, 12C ions and possibly 4He and 16O ions). The detector will be composed by a tracker realized with squared scintillating fibres and read out by a dedicated CMOS-based digital SPAD array detector. The first experimental results of a tracker demonstrator are here presented.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Lead halide perovskite for radiation detection still faces significant challenges despite its exciting progress. The main issues which hinder further development are the toxicity problem of lead and the intrinsic instability for volatile organic parts in lead-based perovskites. Therefore, searching for low-toxic and intrinsically stable perovskite materials have drawn a great attention from the public. In this review, lead-free perovskites are divided into two types: double perovskites type as A2MIMIIX6 and low-dimensional perovskites type as A3W2X9. The synthesis methods of these lead-free perovskites are discussed and the performance on X-ray detection are accordingly summarized. Moreover, a brief outlook on the future development of lead-free perovskites in radiation detection is proposed.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>X-ray detectors;Lead;Sensitivity;X-ray imaging;X-ray detection;Detectors;Toxicology</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10.1109/NSSMIC.2016.8069401</t>
+          <t>10.1109/ICSICT49897.2020.9278179</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Gasparini, L., Mirabelli, R., Patera, V., Pinci, D., Sarti, A., Sciubba, A., Spiriti, E., Stoppa, D., Marafini, M.</t>
+          <t>Zhang, Hainan, Dun, Guanhua, Qiao, Yancong, Xie, Dan, Ren, Tian-Ling</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2016 IEEE Nuclear Science Symposium, Medical Imaging Conference and Room-Temperature Semiconductor Detector Workshop (NSS/MIC/RTSD)</t>
+          <t>2009 3rd International Conference on Bioinformatics and Biomedical Engineering</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Investigation of electron multiplication effect in optical property modulation-based radiation detection method for PET</t>
+          <t>The Cytotoxicity and OS-Mediated Toxicity of One Nanosize Titanium Dioxide</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1178,800 +1250,892 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>In this paper, we further explore the optical property modulation-based method for ionizing radiation photon detection in PET as a potential new direction to dramatically improve the coincidence time resolution. We compare the performance of three detector crystals for this method including two types of cadmium telluride (CdTe) crystals and one bismuth silicon oxide (BSO) crystal under high bias voltages up to 3500V. We first show that the induced current flow in the detector crystal determines the strength of the optical property modulation signal due to ionization. A larger resistivity is favorable for reducing the dark current (noise) in the crystal and facilitates the detection of weak optical property modulation signals. In addition, we show that BSO is a potential candidate detector material. When biased at 3500 V, it has comparable modulation signal sensitivity as CdTe biased at 1000V, but with higher resistivity (lower noise), larger 511 keV photon attenuation coefficient, lower price, better crystal surface finish quality, and less toxicity. By studying the dependence of modulation signal amplitude on crystal bias voltage, we show that the modulation signal amplitude (induced by both UV laser diode and Ge-68 source) is linearly proportional to crystal bias voltage with a linear fit R factor of around 0.95. The modulation signal amplitude induced by UV laser diode irradiation increases from 0% to 2% (normalized to the average signal level) for both CdTe and BSO under crystal bias voltage from 0V to 3500V. The modulation signal amplitude induced by Ge-68 irradiation increases from 0% to 12% for CdTe under crystal bias voltage from 0V to 1500 V, and increases from 0% to 10% for BSO under crystal bias voltage from 0V to 3500 V. Therefore the electron multiplication effect (with high crystal bias) shows promise to significantly boost the modulation signal amplitude with the ultimate goal to achieve single 511 keV photon detection.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>One kind of nanosize titanium dioxide (nano-TiO2) was successfully made through anodization of titanium in this study, and its cytotoxicity and OS-mediated toxicity was detected by MTT, SOD and MDA assay in vitro and in vivo. The results showed that high does (0.8, 1.6 mg/mL) of this nano-TiO2 can cause cytotoxicity and OS-mediated toxicity, and reverse dose-rate effect happened in the low and medium does (0.1, 0.2, 0.4 mg/mL) in the OS-mediated toxicity detection.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Titanium;In vitro;In vivo;Surface morphology;Nanotubes;Manufacturing;Biological materials;Biochemistry;Gas detectors;Organic compounds</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.1109/NSSMIC.2016.8069554</t>
+          <t>10.1109/ICBBE.2009.5163586</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tao, Li, Daghighian, Henry M., Levin, Craig S.</t>
+          <t>Yang, Xu, Xu, Xiao-yu, Xiao, Guo-qiang, Xiang, Xiao-ling</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
+          <t>SENSORS, 2006 IEEE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3D Volume Micro-scale 225Ac Dosimetry in Preclinical Prostate Cancer Models</t>
+          <t>A Novel Combined Biomonitoring System for BOD Measurement and Toxicity Detection using Microbial Fuel Cells</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1247-1248</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Radiopharmaceutical therapy with alpha particle emitters (αRPT) offers an advantage in the treatment of refractory or metastatic cancers, such as metastatic castration-resistant prostate cancer (mCRPC), by using a precise targeting strategy to exploit the high therapeutic specificity of short-range (40-80 μm) cytotoxic alpha particles. 225Ac-based radiopharmaceuticals have shown high efficacy in several clinical trials, but off-target toxicity suggests that improvements are needed in radiochemistry and progeny radionuclide management. However, the limited availability of data and technologies that quantify dose distribution on spatial scales relevant to the alpha particle range impairs accurate characterization of novel αRPT agents. Here, we demonstrate that 2D digital autoradiography with an ionizing-radiation quantum imaging detector (iQID) can facilitate 3D volumetric dosimetry of targeted and non-targeted tissues. A series of 10-μm cryosections extracted every 200 μm spanning the organ or tumor is measured with the device. These activity maps are used in a previously developed Monte Carlo dose kernel convolution procedure to obtain dose-rate images, which we digitally register into a 3D volume via intensity-maximization rigid-body transformations. The resulting dose-rate organ or tumor volume has an effective voxel size of 39 x 39 x 210 μm. To permit the measurement of only one slice at each position, we validate a digital duplication approximation with a secondary experiment measuring 10 consecutive 10-μmslices in each tissue. We use this technique to sample dose-rate measurements across whole tumors and kidneys from a murine study of 225Ac-MACROPA-YS5, a novel αRPT agent with specificity to CD46-positive tumors. Renal cortical dose rate is over twice that of the medullary region, which suggests that free progeny 213Bi, which is known to collect in the renal cortex, is the source of nephrotoxicity in 225Ac αRPT.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Microbial fuel cell enriched with electrochemically-active bacteria using sludge was successfully applied as BOD and toxicity detection biosensors. The current from the microbial fuel cells was proportional to concentration up to 200 mg/L of BOD5 with high linearity. A microbial fuel cell could be also applied to a toxicity detection biosensor. An electric current signal change was observed in the presence of toxic substances (singular/complex) such as cadmium, lead, chromium(VI), mercury, cyanide, arsenic, PCB, organophosphorus and surfactant. By combining the principles of BOD measurement and toxicity detection, a novel biomonitoring system that could simultaneously monitor BOD concentration and the presence of toxic substances in aqueous system could be developed.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Board of Directors;Fuel cells;Biosensors;Microorganisms;Gas detectors;Wastewater;Temperature sensors;Sensor systems;Current;Signal analysis</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10.1109/NSSMICRTSD49126.2023.10337919</t>
+          <t>10.1109/ICSENS.2007.355855</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Peter, R., Bidkar, A. P., Bobba, K. N., Liu, B., Miller, B. W., Vetter, K., Flavell, R. R., Seo, Y.</t>
+          <t>Kim, Mia, Park, Hyung Soo, Jin, Gil Ju, Cho, Won Hui, Lee, Dong Kwon, Hyun, Moon Sik, Choi, Chang Ho, Kim, Hyung Joo</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
+          <t>Proceedings of OCEANS 2005 MTS/IEEE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ultralow Dose Small Animal SPECT reconstruction for Alpha-Emitter Radiopharmaceutical Therapy</t>
+          <t>Broadband toxicity sensing for rapid surveys of drinking water storage facilities</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1448-1454 Vol. 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Alpha-emitter radiopharmaceutical therapy (αRPT) becomes a promising cancer treatment, which harnesses the high linear energy transfer (LET) and short range of α-particles to deliver targeted destruction of cancer cells. However, the application of alpha-emitters in Targeted Alpha Therapies (TATs) may lead to the release of daughter products, which can migrate away from the tumor site and cause toxicity in nearby tissues and organs. To identify the biodistribution of primary α-emitters and their daughters, SPECT scanner with superior energy resolution is crucial to differentiate specific gamma-rays from different isotopes and distinguish the primary signal from scattering noise events. Because TAT imaging typically utilizes very low concentrations of alpha-particle emitters less than 1 μCi, the image reconstruction with denoising is necessary. Recently, we have developed an innovative preclinical SPECT system at UIUC featuring smallpixel CdTe detectors, which provides ultra-high energy resolution and exceptional spatial resolution for small-animal αRPT imaging applications. In this study, we focused on low count SPECT reconstruction, which involves 1) constructing a system matrix using voxel-driven forward/backward projectors, and 2) implementing a penalized SPECT reconstruction method utilizing the forward-backward splitting approach. We evaluated our approach using a resolution phantom filled with diagnostic isotope Tc-99m (1.5 mCi). Our results demonstrate that our system achieved a spatial resolution of approximately 0.75 mm and was capable of detecting and imaging low-activity sources with reduced artifact. In our future studies, the imaging of a mouse with sub 1-μCi Ac-225 will be particularly challenging.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>Nekton Research has developed a novel, broad-band water toxicity detector and sampler for use on the Nekton Ranger AUV. This system can quickly survey drinking water reservoirs, in 3D, and provide early warning of toxic contamination. The novel element of the detector is an array of live clams that function as "canaries in a coal mine". When these highly sensitive filter feeders encounter water they deem toxic, they snap their shells shut and close down their feeding activities - a rapid reaction that can be utilized to trigger AUV response. Initial field trials and sensor characterization will be described as well as homeland security applications</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Water storage;Water pollution;Detectors;Water resources;Reservoirs;Contamination;Sensor arrays;Filters;Sensor phenomena and characterization;Terrorism</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10.1109/NSSMICRTSD49126.2023.10337984</t>
+          <t>10.1109/OCEANS.2005.1639959</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Kim, K., Yang, C., Meng, L.J., Li, Q.</t>
+          <t>Moody, R.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
+          <t>2009 9th IEEE Conference on Nanotechnology (IEEE-NANO)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pharmacokinetic and dosimetry modeling of Radiopharmaceutical Therapy using Spatial Transcriptomics in microenvironment</t>
+          <t>Toxicity of toner nanoparticles on RT112 cell cultures</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>616-618</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The efficacy of radiopharmaceutical therapy (RPT) relies on the ability to deliver cytotoxic radiation to cancer cells or the surrounding tumor microenvironment (TME) while minimizing normal tissue toxicity. Therefore, dosimetry is essential to understand the factors that influence treatment. The spatial transcriptomics (ST) technique may offer a breakthrough in investigating RPT dosimetry as it enables to spatially profile the diverse gene transcripts that are associated with TME. In this study, we propose a novel approach to combine the pharmacokinetics and dosimetry of RPT with ST maps to elucidate the heterogeneity of RPT dosimetry and its effects. For proof of concept, we focused on modeling 177Lu-and 225Ac-prostate-specific membrane antigen (PSMA), which emit beta and alpha particles, respectively. Specifically, we solved partial differential equations (PDE) of the pharmacokinetic model and applied the dose-voxel kernel (DVK) method using various ST maps. Additionally, assuming hypoxia as one of the influencing factors in RPT, we utilized hypoxia ST to measure the cell survival probability of each 177Lu-and 225Ac- RPT.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>10.1109/NSSMICRTSD49126.2023.10338027</t>
-        </is>
-      </c>
+          <t>The measurement of cell proliferation and cell viability has become a key technology in the life sciences. The need for sensitive, reliable, fast and easy methods has led to the development of several standard assays. These include the determination of DNA synthesis by measuring the amount of radioactive labeled nucleosides like [3H]-thymidine incorporated in nucleic acid. Alternatively several tetrazolium salts, including MTT, XTT and MTS are usually used to assay cell proliferation and viability on microplate assays. Actually there is an immediate need for nanotoxicology the availability of rapid and inexpensive tools in order to carry out some preliminary test for nanomaterials and the aim of our work was to investigate on the feasibility of WST-1 assay for this purpose. In our aim we investigated the toxicity in term of cell proliferation of toner nanoparticles (5-50 nm) on human bladder carcinoma cell line RT112 by WST-1 assay and also to evaluate the feasibility to apply this method as tool for in vitro nanotoxicology studies. In order to relate the toxicity test results to the toner powder properties, chemical and physical-chemical analyses have been performed in parallel on the same batch sample.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nanoparticles;Testing;Chemical analysis;Standards development;DNA;Nuclear measurements;Nanomaterials;Humans;Bladder;In vitro;formatting;style;styling;insert;nanotoxicology;nanoparticles;RT112 Cell line</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Hong, J., Bae, S., Cavinato, L., Erlandsson, K., Choi, H., Shi, K.</t>
+          <t>Mosiello, Lucia, Zappa, Giovanna, Zoani, Claudia, Lamberti, Ilaria, Gatti, Rosanna, Pilloni, Luciano</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
+          <t>TENCON 2018 - 2018 IEEE Region 10 Conference</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Personalized PBPK modeling can reduce uncertainty of the dose prediction in radiopharmaceutical therapy (RPT): a simulation study</t>
+          <t>Automated Chicken Manure Toxicity Level Reducer System Using Optimized Effective Microorganism (EM) Solution</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1403-1407</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Physiologically based pharmacokinetic modeling plays a crucial role in optimizing dosimetry estimates for radiopharmaceutical therapy (RPT) on cancer patients. Presently, PBPK applications in RPT predominantly depend on population-level parameters, leading to large uncertainties on the dose prediction. These uncertainties can result in sub-optimal therapeutic effects, increase toxicity, and compromise treatment planning. In this study, we developed a whole body PBPK model, incorporating a Tumor compartment, to predict the dose in different organs. By personalizing certain anatomical and physiological parameters that could be potentially derived from pre-treatment PET/CT and blood test, we observed a substantial decrease in the uncertainty of dose prediction when utilizing personalized PBPK modeling.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>Poultry industry has been always a part of the Philippines' agricultural sector being one of the top contributors in revenues in livestock. However, poultry farms oftentimes emit odors coming from chicken manure that can cause harmful effects to local residents and the chicken themselves. One solution to remedy this is the usage of effective microorganism (EM). EM is a low-cost, non-harmful, non-pathogenic, non-genetically modified solution commonly used for waste treatment. In this study, the researchers developed a system that automatically detects toxicity levels of gases and reduces it, together with the foul odor, using automatic spraying of activated EM solution. Spray schedule is also optimized using data analytics techniques. Results show satisfactory results reducing toxicity levels constantly on poultry houses where the system is implemented.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Spraying;Gases;Schedules;Microorganisms;Optimization;Gas detectors;Data analysis;sensor networks;effective microorganism (EM);chicken manure odor;data analytics;data visualization;optimization</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10.1109/NSSMICRTSD49126.2023.10338122</t>
+          <t>10.1109/TENCON.2018.8650489</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hu, R., Luo, J., Saboury, B., Heidari, P., Li, Q., Liu, H., Guo, N.</t>
+          <t>Arago, Nilo M., Garcia, Teodinis P., Amado, Timothy M.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IEEE Symposium Conference Record Nuclear Science 2004.</t>
+          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Polycrystalline diamond detectors compared with silicon X-ray dosimeters for clinical use</t>
+          <t>Alpha-SPECT-mini: A Preclinical SPECT system Using Ultrahigh Energy Resolution CdTe detectors for Low-Dose Alpha Emitter Radiopharmaceutical Therapy Imaging</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4445-4447</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Physical and metering characteristics of three room temperature X-ray dosimeters used in clinical applications, PTW diamond, Thompson MOSFET and Scanditronix silicon diode are compared with polycrystalline diamond X-ray detectors. Development of dosimeters based on natural diamond carried out by PTW have provided superior characteristics with respect to other solid state silicon devices such diodes or MOSFETs. Radiation hardness, soft tissue equivalence, lack of toxicity, negligible energy dependence and optimal sensitivity and reproducibility, have made PTW the ideal metering device for clinical dosimetry. However general use of natural dosimeters have been hindered by their rarity, very high cost and unpredictable electronic behavior due to lack of control on impurity content and crystal defects. Therefore, there have been a growing use of silicon dosimeters especially for on line configuration and in vivo dosimetry. However, both MOSFET and silicon diode do not appear to be ideal for such application for their short lifetime. Detectors based on polycrystalline diamonds seem to be the best candidate for future dosimetry since they have most of the characteristics of natural diamonds at potentially much lower cost. In this context, the performances of a laboratory made polycrystalline diamond device are compared to those of the three, PTW, Scanditronix and Thomson commercial dosimeters.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>In this work, we have developed the CdTe detector-based alpha-SPECT-mini system for preclinical studies. The system is designed to have ultrahigh energy resolution &lt;3keV on average and sensitivity to accommodate the low dose of the targeted alpha therapy applications in mice studies. Machine learning charge sharing reconstruction algorithms are used to achieve the best energy resolution and sensitivity simultaneously. We have performed the Derenzo resolution and Image Quality phantom studies with Tc-99m to evaluate the intrinsic resolution &lt;0.75mm and with Ac-225 to evaluate the multi-isotope imaging capabilities (Ac-225, Fr-221, Bi-213, Tl-209) of the system. Soon, we will also perform the in vivo mice imaging study to further evaluate the system performance for low dose imaging and to study the biological reaction of mice to Ac-225 and toxicity effects on surrounding healthy tissues.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sensitivity;Image resolution;Toxicology;II-VI semiconductor materials;System performance;Energy resolution;Medical treatment</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10.1109/NSSMIC.2004.1466871</t>
+          <t>10.1109/NSSMICRTSD49126.2023.10338639</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ciancaglioni, I., Consorti, R., Rossi, M.C., Conte, G.</t>
+          <t>Yang, C., Zannoni, E. M., Cai, L., Wilson, M. D., Bastiaannet, R., Du, Y., Sgouros, G., Frey, E., Meng, L.J.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2010 Annual International Conference of the IEEE Engineering in Medicine and Biology</t>
+          <t>2005 IEEE LEOS Annual Meeting Conference Proceedings</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A multiclass multivariate group comparison test: Application to drug safety</t>
+          <t>Sensing of mid-infrared radiation by engineered quantum nanostructures</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4711-4714</t>
+          <t>122-123</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hypothesis tests are used to compare and show the efficiency of drugs. However, usual tests do not perform properly whenever the number of variables is greater than, or of the same order of magnitude as, the number of observations. In this paper, we propose an alternative to usual multiclass multivariate group comparison tests such as MANOVA or Wilcoxon tests. We present a pattern recognition approach to compare drugs in high dimensional spaces. Our test is based on the classification probability of error of a classifier. The decision statistics is obtained using the leave one out procedure. The statistics power density function has been experimentally shown independent from the data distribution under the null hypothesis, that allows to determine the threshold, or the p-values, of our test. This test has been applied on clinical data registered to ensure the safety side and tolerability of drugs tested.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>This paper provided preliminary results on (In,Ga)As quantum dot detectors that have shown the potential to operate well beyond 150 K. In addition, a review of the latest results in the use of quantum dots in mid-wave infrared detection from 78 K and beyond is presented.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nanostructures;Quantum dots;Gallium arsenide;Infrared detectors;Atomic layer deposition;Energy states;Carrier confinement;Doping;Radiation detectors;Nanoparticles</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10.1109/IEMBS.2010.5626384</t>
+          <t>10.1109/LEOS.2005.1547900</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tohmé, Mireille, Lengellé, Régis, Freytag, Virginie</t>
+          <t>Towe, E., Pal, D.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022 IEEE/ACM 44th International Conference on Software Engineering: Software Engineering in Society (ICSE-SEIS)</t>
+          <t>ISA/IEEE Sensors for Industry Conference, 2004. Proceedings the</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Detecting Interpersonal Conflict in Issues and Code Review: Cross Pollinating Open- and Closed-Source Approaches</t>
+          <t>Sensor analysis of liquid pollution</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>41-55</t>
+          <t>155-158</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Interpersonal conflict in code review, such as toxic language or an unnecessary pushback, is associated with negative outcomes such as stress and turnover. Automatic detection is one approach to prevent and mitigate interpersonal conflict. Two recent automatic detection approaches were developed in different settings: a toxicity detector using text analytics for open source issue discussions and a pushback detector using logs-based metrics for corporate code reviews. This paper tests how the toxicity detector and the pushback detector can be generalized beyond their respective contexts and discussion types, and how the combination of the two can help improve interpersonal conflict detection. The results reveal connections between the two concepts. LAY ABSTRACT Software engineers often communicate with one another on platforms that support tasks like discussing bugs and inspecting each others‘ code. Such discussions sometimes contain interpersonal conflict, which can lead to stress and abandonment. In this paper, we investigate how to automatically detect interpersonal conflict, both by analyzing the text of the what the engineers are saying and by analyzing the properties of that text.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>The new portable microfluidic device for field measurement of organophosphorous pesticides toxicity is presented. The device consists of two loop pumps. The first loop assures the mixing of solution. The 95% of solution circulates through the first loop. The second loop consists of capillary which creates the hydrodynamic resistance and the chamber with the miniature electrochemical detector. The detection is based on the inhibition of acetylcholinesterase. The enzyme acetylcholinesterase is immobilized on the detector made by thick film technology forming together a biosensor. The analyzed sample is detected in the flow of supporting buffer. The biosensor detects the integral sample toxicity. The signal from biosensor is evaluated by Bioanalyzer electronic unit. It is destinated for detection of traces of pesticides in washout from leaves, for direct measurement in rivers, ponds, waste waters and drinking water sources.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Biosensors;Pollution measurement;Detectors;Water resources;Microfluidics;Electrical resistance measurement;Hydrodynamics;Immune system;Biochemistry;Thick films</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10.1145/3510458.3513019</t>
+          <t>10.1109/SFICON.2004.1287151</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Qiu, Huilian Sophie, Vasilescu, Bogdan, Kästner, Christian, Egelman, Carolyn, Jaspan, Ciera, Murphy-Hill, Emerson</t>
+          <t>Haze, J., Krejci, J., Vrba, R., Sveda, M.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2011 IEEE Nuclear Science Symposium Conference Record</t>
+          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Performance characteristics of a High Efficiency Passive Neutron Assay System using alternative neutron detectors to helium-3</t>
+          <t>3D Volume Micro-scale 225Ac Dosimetry in Preclinical Prostate Cancer Models</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4853-4857</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Passive neutron non-destructive assay systems demand high sensitivity in order to be capable of detecting milligram levels of plutonium for safeguards and waste characterization applications. Chamber efficiencies greater than 30% are required for neutron coincidence and multiplicity counting systems. Existing systems are based on 3He proportional counters and require hundreds of liters of this gas. The severe 3He shortage has created a driver to evaluate alternative detectors in this application. An alternate design must meet the following performance requirements: 1) high absolute detection efficiency, 2) low gamma ray sensitivity and 3) short die-away times. In addition, practical aspects of the detectors must be considered including: 1) system lifetime costs, 2) backward compatibility with existing protocols, 3) long term stability in industrial environments, 4) low maintenance, 5) technology maturity, 6) production scalability and 7) materials toxicity. Several alternative sensors are currently available that could potentially meet the above requirements. These include Boron trifluoride (BF3) filled detectors, 10B lined proportional counters (including novel designs that increase surface area) and various scintillators based on 6Li. For each category the most promising candidate has been identified and evaluated for use as a direct replacement for 3He in a typical High Efficiency Passive Neutron Assay System designed for transuranic / low-level waste sentencing with a lower limit of detection of 3700 Bq/g (alpha activity concentration). Performance of the alternative designs has been modeled and compared to the 3He baseline with any potential technical improvements also being considered.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>Radiopharmaceutical therapy with alpha particle emitters (αRPT) offers an advantage in the treatment of refractory or metastatic cancers, such as metastatic castration-resistant prostate cancer (mCRPC), by using a precise targeting strategy to exploit the high therapeutic specificity of short-range (40-80 μm) cytotoxic alpha particles. 225Ac-based radiopharmaceuticals have shown high efficacy in several clinical trials, but off-target toxicity suggests that improvements are needed in radiochemistry and progeny radionuclide management. However, the limited availability of data and technologies that quantify dose distribution on spatial scales relevant to the alpha particle range impairs accurate characterization of novel αRPT agents. Here, we demonstrate that 2D digital autoradiography with an ionizing-radiation quantum imaging detector (iQID) can facilitate 3D volumetric dosimetry of targeted and non-targeted tissues. A series of 10-μm cryosections extracted every 200 μm spanning the organ or tumor is measured with the device. These activity maps are used in a previously developed Monte Carlo dose kernel convolution procedure to obtain dose-rate images, which we digitally register into a 3D volume via intensity-maximization rigid-body transformations. The resulting dose-rate organ or tumor volume has an effective voxel size of 39 x 39 x 210 μm. To permit the measurement of only one slice at each position, we validate a digital duplication approximation with a secondary experiment measuring 10 consecutive 10-μmslices in each tissue. We use this technique to sample dose-rate measurements across whole tumors and kidneys from a murine study of 225Ac-MACROPA-YS5, a novel αRPT agent with specificity to CD46-positive tumors. Renal cortical dose rate is over twice that of the medullary region, which suggests that free progeny 213Bi, which is known to collect in the renal cortex, is the source of nephrotoxicity in 225Ac αRPT.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Semiconductor device measurement;Solid modeling;Three-dimensional displays;Toxicology;Semiconductor detectors;Alpha particles;Position measurement</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10.1109/NSSMIC.2011.6152484</t>
+          <t>10.1109/NSSMICRTSD49126.2023.10337919</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Simpson, A.P., Jones, S., Clapham, M.J., McElhaney, S. A.</t>
+          <t>Peter, R., Bidkar, A. P., Bobba, K. N., Liu, B., Miller, B. W., Vetter, K., Flavell, R. R., Seo, Y.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2019 22nd European Microelectronics and Packaging Conference &amp; Exhibition (EMPC)</t>
+          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Investigation of the Microstructure of Mn-doped Tin-Silver-Copper Solder Alloys Solidified with Different Cooling Rates</t>
+          <t>Ultralow Dose Small Animal SPECT reconstruction for Alpha-Emitter Radiopharmaceutical Therapy</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Due to the moderate price and the non-toxicity, manganese is considered as an ideal dopant for the SAC (SnAgCu) solder alloys. Manganese refines the grain of solder joints, yielding better thermomechanical properties. In present research, the microstructure of the manganese-doped alloys solidified with different technological parameters had been investigated. Sn/Ag0.3/Cu0.7 based solder alloy with three different Mn content (0.1, 0.4, 0.7% wt%= were reflowed on a copper substrate with tempered hot plate. They were solidified with different cooling rates from 0.3 to 4.5 K/s. Cross-sections have been prepared from the solder samples and the metallographic properties of the solder samples was investigated with optical and scanning electron microscopes. The characteristic features of the samples have been compared to conventionally used SAC305 (Sn/Ag3/Cu0.5= solder alloys, solidified with the same rates of cooling. Results showed that besides the grain refinement, the Mn content might also have effect on the evolution of intermetallic layer between the substrate and the solder alloy. The IMC grains of the layer were more elongated and more spalled grains had been observed close to the layer. However, independently of the cooling rate, the microstructure of the Mn containing solder alloys remained the same. This suggests that the macroscopic properties are also expected to be less sensitive to the cooling rate of the solidification.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Alpha-emitter radiopharmaceutical therapy (αRPT) becomes a promising cancer treatment, which harnesses the high linear energy transfer (LET) and short range of α-particles to deliver targeted destruction of cancer cells. However, the application of alpha-emitters in Targeted Alpha Therapies (TATs) may lead to the release of daughter products, which can migrate away from the tumor site and cause toxicity in nearby tissues and organs. To identify the biodistribution of primary α-emitters and their daughters, SPECT scanner with superior energy resolution is crucial to differentiate specific gamma-rays from different isotopes and distinguish the primary signal from scattering noise events. Because TAT imaging typically utilizes very low concentrations of alpha-particle emitters less than 1 μCi, the image reconstruction with denoising is necessary. Recently, we have developed an innovative preclinical SPECT system at UIUC featuring smallpixel CdTe detectors, which provides ultra-high energy resolution and exceptional spatial resolution for small-animal αRPT imaging applications. In this study, we focused on low count SPECT reconstruction, which involves 1) constructing a system matrix using voxel-driven forward/backward projectors, and 2) implementing a penalized SPECT reconstruction method utilizing the forward-backward splitting approach. We evaluated our approach using a resolution phantom filled with diagnostic isotope Tc-99m (1.5 mCi). Our results demonstrate that our system achieved a spatial resolution of approximately 0.75 mm and was capable of detecting and imaging low-activity sources with reduced artifact. In our future studies, the imaging of a mouse with sub 1-μCi Ac-225 will be particularly challenging.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Toxicology;Semiconductor detectors;Energy resolution;Scattering;Reconstruction algorithms;Single photon emission computed tomography;Spatial resolution</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10.23919/EMPC44848.2019.8951866</t>
+          <t>10.1109/NSSMICRTSD49126.2023.10337984</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Hurtony, Tamás, Krammer, Oliver, Illés, Balázs, Gordon, Péter</t>
+          <t>Kim, K., Yang, C., Meng, L.J., Li, Q.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020 IEEE MIT Undergraduate Research Technology Conference (URTC)</t>
+          <t>2011 IEEE Nuclear Science Symposium Conference Record</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A Novel Approach to Toxic Gas Detection using an IoT Device and Deep Neural Networks</t>
+          <t>Performance characteristics of a High Efficiency Passive Neutron Assay System using alternative neutron detectors to helium-3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>4853-4857</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Smoking remains one of the top 3 causes of illness in the US, one of top 5 causes of fire hazards in a home and is the single most preventable cause of illness and premature death in the US. The use of Deep Neural Networks in tandem with advances in the sensitivity of gas sensor technology can enable detection of cigarette/Vape smoke much sooner and with much higher accuracy than conventional smoke/carbon monoxide detectors used today. We report a hardware demonstration and prototype that engages Classifiers to not only discriminate cigarette/vape emissions from other sources of smoke and carbon monoxide such as burning coal, wood or food - typically not possible with conventional smoke detectors, but also to accurately detect cigarette/vape smoke produced in a large space (7K ft3) from a single cigarette when concentrations of component gases of cigarette smoke are extremely low. Our prototype also demonstrates the opportunity to classify and discriminate different levels of toxicity and flammability for spaces used by different people enabling AI based sensing at scale where besides accuracy and speed, the utility of larges sets of sensor nodes are critical to enabling cost advantages over conventional detector technology.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>Passive neutron non-destructive assay systems demand high sensitivity in order to be capable of detecting milligram levels of plutonium for safeguards and waste characterization applications. Chamber efficiencies greater than 30% are required for neutron coincidence and multiplicity counting systems. Existing systems are based on 3He proportional counters and require hundreds of liters of this gas. The severe 3He shortage has created a driver to evaluate alternative detectors in this application. An alternate design must meet the following performance requirements: 1) high absolute detection efficiency, 2) low gamma ray sensitivity and 3) short die-away times. In addition, practical aspects of the detectors must be considered including: 1) system lifetime costs, 2) backward compatibility with existing protocols, 3) long term stability in industrial environments, 4) low maintenance, 5) technology maturity, 6) production scalability and 7) materials toxicity. Several alternative sensors are currently available that could potentially meet the above requirements. These include Boron trifluoride (BF3) filled detectors, 10B lined proportional counters (including novel designs that increase surface area) and various scintillators based on 6Li. For each category the most promising candidate has been identified and evaluated for use as a direct replacement for 3He in a typical High Efficiency Passive Neutron Assay System designed for transuranic / low-level waste sentencing with a lower limit of detection of 3700 Bq/g (alpha activity concentration). Performance of the alternative designs has been modeled and compared to the 3He baseline with any potential technical improvements also being considered.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Helium;Soil;Concrete;Neutrons;Hydrogen;Metals;Geology</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10.1109/URTC51696.2020.9668871</t>
+          <t>10.1109/NSSMIC.2011.6152484</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bhavnagarwala, Ibrahim, Bhavnagarwala, Adam</t>
+          <t>Simpson, A.P., Jones, S., Clapham, M.J., McElhaney, S. A.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ISA/IEEE Sensors for Industry Conference, 2004. Proceedings the</t>
+          <t>2009 3rd International Conference on Bioinformatics and Biomedical Engineering</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sensor analysis of liquid pollution</t>
+          <t>Nitrobenzene Removal in Biological Activated Carbon Filter by Immobilized Dominant Bacteria</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>155-158</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The new portable microfluidic device for field measurement of organophosphorous pesticides toxicity is presented. The device consists of two loop pumps. The first loop assures the mixing of solution. The 95% of solution circulates through the first loop. The second loop consists of capillary which creates the hydrodynamic resistance and the chamber with the miniature electrochemical detector. The detection is based on the inhibition of acetylcholinesterase. The enzyme acetylcholinesterase is immobilized on the detector made by thick film technology forming together a biosensor. The analyzed sample is detected in the flow of supporting buffer. The biosensor detects the integral sample toxicity. The signal from biosensor is evaluated by Bioanalyzer electronic unit. It is destinated for detection of traces of pesticides in washout from leaves, for direct measurement in rivers, ponds, waste waters and drinking water sources.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>A dominant bacteria for nitrobenzene removal was isolated from Songhua River and identified as Bacillus-subtilis. Experiments have been carried out to investigate the performance of a biological activated carbon(BAC) using this dominant bacteria immobilized on carbon media in treating nitrobenzene. The results show that dominant bacteria were capable of removing the nitrobenzene completely even with high concentrations of nitrobenzene in raw water and the nitrobenzene concentration in BAC effluent was all not detected after the stabilization of the filter operation. The bacteria on BAC filter were ready for use after 20 days of start-up period. The stabilization of the biomass on BAC filter was achieved after 90 days operation. The toxicity test checked by Deltatox Analyzer indicated that most of the nitrobenzene was removed by the top and middle layer of the filters.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Filters;Microorganisms;Effluents;Testing;Water resources;Carbon dioxide;Rivers;Degradation;Raw materials;Surface treatment</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10.1109/SFICON.2004.1287151</t>
+          <t>10.1109/ICBBE.2009.5163111</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Haze, J., Krejci, J., Vrba, R., Sveda, M.</t>
+          <t>Gao, Yu-Nan, Li, Weiguang, Bai, Yu, Liu, Shui</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021 IEEE Sensors</t>
+          <t>2024 IEEE Nuclear Science Symposium (NSS), Medical Imaging Conference (MIC) and Room Temperature Semiconductor Detector Conference (RTSD)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CuFeSe2 Quantum-Dot Based Infrared Photodetectors with Functionality in the Ambient</t>
+          <t>Target Design and Optimizations for Spent Fuel Transmutation</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Applications such as infrared cameras and detectors have driven efforts to discover novel infrared materials. Quantum dots have been demonstrated as sensitive and tunable infrared absorbers. Most successful quantum dots are prepared from heavier II-VI materials based on mercury and therefore pose toxicity hazards. Here we investigate CuFeSe2 quantum dots as a potential solution processed, minimally hazardous photodetector material for the fabrication of devices with functionality in the ambient. Following characterization of the nanocrystals through Transmission Electron Microscopy (TEM) and their absorption spectrum with infrared spectroscopy, we demonstrate infrared and visible light detection with two device architectures. A Metal-Semiconductor-Metal (MSM) photoconductor shows optoelectronic response with infrared light, and a p-n heterojunction shows the characteristic I-V curve with a broadband visible-infrared light source. We thus demonstrate the application of CuFeSe2 quantum dots as an infrared active material, and its heterojunction with silicon as a promising photodetector device.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>There are six long-lived fission products (LLFPs) identified in nuclear spent fuel, which are responsible for at least 99% of the long-term radio-toxicity once actinide recycling has been completed. This paper discusses the feasibility of using proton beams to transmute the LLFPs into shorter-lived or stable isotopes. Although long-term storage for high-level waste would still be required, transmuting the LLFPs can reduce the volume of waste material stored. PHITS, a Monte Carlo transport code, is utilized to computationally model the interactions between the LLFP materials and the proton beam. PHITS is used in this paper to estimate the flux-energy spectrum and number of atoms irradiated in the LLFP target when interacting with the beam. This data is then post-processed in a 0-dimensional analysis in FISPACT to estimate the transmutation rate for each LLFP. Analysis of the performance of commercial cyclotrons with energies of 18-70 MeV has shown that transmutation rates will increase when the proton beam energy is increased. A cyclotron with a beam current of 10 mA and beam energy of 70 MeV running continuously can transmute 7.51 ± 1.19 g/year of technetium-99. However, technetium-99 is produced at around a rate of 1kg/year inside a 1 GW reactor, suggesting that commercial cyclotrons are not viable for transmutation purposes. Studies are ongoing on modeling 1000 MeV proton beams to cause spallation reactions inside the LLFP targets. The spallation process burns the LLFP target while producing many secondary neutrons that can be further used for transmuting the LLFPs. A preliminary analysis suggests that a 1000 MeV beam with a 10 mA current can transmute around 1kg/year of technetium-99 due to nuclear reactions without accounting for spallation reactions.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Particle beams;Waste materials;Microwave integrated circuits;Monte Carlo methods;Semiconductor detectors;Neutrons;Recycling</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10.1109/SENSORS47087.2021.9639657</t>
+          <t>10.1109/NSS/MIC/RTSD57108.2024.10655161</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Kumar, Tanuj, Sugathan, Anumol, Narasimhan, K. L., Pandey, Anshu, Avasthi, Sushobhan</t>
+          <t>Tukharyan, G., Danagoulian, A., Forget, B., Wickert, C., Yu, J.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2008 IEEE Nuclear Science Symposium Conference Record</t>
+          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Low overdrive voltage and low current compact comparator for a diamond dosimeter ASIC</t>
+          <t>Pharmacokinetic and dosimetry modeling of Radiopharmaceutical Therapy using Spatial Transcriptomics in microenvironment</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2043-2047</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The dosimeters for radiotherapy must comply to strict requirements in terms of sensitivity, toxicity, tissue equivalence and radiation hardness. At present time both silicon and diamond dosimeters are used as solid state devices and in recent years, monocrystalline diamond sensors have been grown with CVD techniques. Due to the low current signals, the sensor readout is made by electrometers connected to the device with multi wire shielded cables. This measurement setup may be a serious limitation for practical application of these sensors, and makes impossible the use of matrix sensors. We present some functional block design for an ASIC that could replace the electrometer and the cabling for the measurements. The system will be realized by an hybrid assembly with the detector, or the detector matrix, very closely placed and wire bonded to the readout ASIC. The device is designed in 180 nm UMC technology with dual power supply, 3.3 V for the analog front end, in order to extend the signal dynamic, and 1.8 V for the control logic.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>The efficacy of radiopharmaceutical therapy (RPT) relies on the ability to deliver cytotoxic radiation to cancer cells or the surrounding tumor microenvironment (TME) while minimizing normal tissue toxicity. Therefore, dosimetry is essential to understand the factors that influence treatment. The spatial transcriptomics (ST) technique may offer a breakthrough in investigating RPT dosimetry as it enables to spatially profile the diverse gene transcripts that are associated with TME. In this study, we propose a novel approach to combine the pharmacokinetics and dosimetry of RPT with ST maps to elucidate the heterogeneity of RPT dosimetry and its effects. For proof of concept, we focused on modeling 177Lu-and 225Ac-prostate-specific membrane antigen (PSMA), which emit beta and alpha particles, respectively. Specifically, we solved partial differential equations (PDE) of the pharmacokinetic model and applied the dose-voxel kernel (DVK) method using various ST maps. Additionally, assuming hypoxia as one of the influencing factors in RPT, we utilized hypoxia ST to measure the cell survival probability of each 177Lu-and 225Ac- RPT.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Semiconductor device measurement;Toxicology;Semiconductor detectors;Transcriptomics;Medical treatment;Hypoxia;Mathematical models</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10.1109/NSSMIC.2008.4774859</t>
+          <t>10.1109/NSSMICRTSD49126.2023.10338027</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Petulla, F., de Notaristefani, F., Cencelli, V. Orsolini, D'Abramo, E., Fabbri, A., Riondino, D., Marinelli, M., Verona-Rinati, G.</t>
+          <t>Hong, J., Bae, S., Cavinato, L., Erlandsson, K., Choi, H., Shi, K.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2011 IEEE Nuclear Science Symposium Conference Record</t>
+          <t>2023 IEEE Nuclear Science Symposium, Medical Imaging Conference and International Symposium on Room-Temperature Semiconductor Detectors (NSS MIC RTSD)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BrachyView: A novel in-body imaging system for prostate brachytherapy</t>
+          <t>Personalized PBPK modeling can reduce uncertainty of the dose prediction in radiopharmaceutical therapy (RPT): a simulation study</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>279-281</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The dosimetric quality of seed implants is a crucial part of the prostate brachytherapy treatment procedure. Incorrect seed placement during or after deployment leads to both short and long term complications, including urethral and rectal toxicity. The BrachyView system is a fast intraoperative planning system, providing real-time dosimetric information by acting as an in-body gamma camera. It incorporates three tiled Medipix2 pixellated detectors coupled to a multi-pinhole collimator. Three-dimensional reconstructed images from multiple planar images are used to determine the seed placement in real time. The seed image, when fused with the ultrasound dataset, provides both anatomical and dosimetric information and can overcome the shortcomings of current ultrasound imaging techniques. This paper presents the results of preliminary studies carried out in a PMMA prostate phantom. It is demonstrated that the technique provides an effective and practical intraoperative treatment planning mechanism for permanent prostate brachytherapy (PPB) treatments.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>Physiologically based pharmacokinetic modeling plays a crucial role in optimizing dosimetry estimates for radiopharmaceutical therapy (RPT) on cancer patients. Presently, PBPK applications in RPT predominantly depend on population-level parameters, leading to large uncertainties on the dose prediction. These uncertainties can result in sub-optimal therapeutic effects, increase toxicity, and compromise treatment planning. In this study, we developed a whole body PBPK model, incorporating a Tumor compartment, to predict the dose in different organs. By personalizing certain anatomical and physiological parameters that could be potentially derived from pre-treatment PET/CT and blood test, we observed a substantial decrease in the uncertainty of dose prediction when utilizing personalized PBPK modeling.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Microwave integrated circuits;Uncertainty;Toxicology;Semiconductor detectors;Medical treatment;Predictive models;Physiology</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10.1109/NSSMIC.2011.6154497</t>
+          <t>10.1109/NSSMICRTSD49126.2023.10338122</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Loo, Kevin, Petasecca, Marco, Safavi, Mitra, Lerch, Michael, Han, Zhangbo, Jakubek, Jan, Pospisil, Stanislav, Meikle, Steven, Zaider, Marco, Bucci, Joseph, Rosenfeld, Anatoly</t>
+          <t>Hu, R., Luo, J., Saboury, B., Heidari, P., Li, Q., Liu, H., Guo, N.</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2017 Global Medical Engineering Physics Exchanges/Pan American Health Care Exchanges (GMEPE/PAHCE)</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Novel Smoke-Aware Individual Evacuation and Congestion-Aware Group Evacuation Algorithms in IoT-Enabled Multi-Story Multi-Exit Buildings</t>
+          <t>Low cost and optical detection from fluorescence of Ochratoxin A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>119402-119418</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Because of toxic gases and fast propagation speed, smoke causes the major injuries and deaths than burns in the fire. Deploying IoT enabled smoke sensors not only help to sense, collect, and transmit the smoke data to the control station, but also enable a dynamic and real-time evacuation approach to increase the evacuation success probability. In this paper, two smoke-aware evacuation approaches are proposed. The individual evacuation mathematical model and the associated SIEP algorithm are first devised to identify a fastest smoke toxic safe evacuation path for an evacuee. Next, the group evacuation mathematical model and the associated SGEP algorithm are devised to evacuate as many evacuees as possible in considering the smoke toxicity and flow congestion along the evacuation routes. SGEP circumvents the congestion problem by scheduling the evacuation sequence according to evacuee’s accumulated smoke toxicity value, where higher accumulated smoke toxicity value has higher evacuation priority to prevent incapacitation at evacuation. The FDS simulations based on the real layout of Taipei 101 mall are performed to compare the evacuation success probability between SIEP and SGEP at methane fire and PVC fire. The simulation results show that smoke from PVC fire is more toxic than that of methane fire. In addition, enabling sprinklers can reduce the percentage of toxic nodes up to 41% at methane fire and up to 10% at PCV fire, as compared to not enabling them. These results indicate that it is more challenging to evacuate at PVC fire than at methane fire. The simulation results in SGEP and SIEP justify the above conclusions where the success evacuation probability differences between methane fire and PVC fire are up to 39% (i.e., 100% and 61%) and 52.5% (i.e., 82.5% and 30%) for SGEP and SIEP, respectively. The simulation results also show that SGEP outperforms SIEP in terms of evacuation success probability at all simulation settings, especially when large number of evacuees are to be evacuated. At methane fire, the largest evacuation success probability difference between SGEP and SIEP is 68.1% at 1000 evacuees, 0.3 FED threshold and without sprinklers. At PVC fire, the largest difference is 50% at 1000 evacuees, 0.5 FED threshold and with sprinklers. These significant differences in evacuation success probability come from the evacuation congestion in SIEP. The evacuation scheduling approach based on accumulated smoke toxicity policy enables SGEP to circumvent the evacuation congestion, and to get better evacuation success probability. Besides identifying safe evacuation route and evacuation scheduling policy during congestion to evacuate more evacuees, another contribution of this paper is to identify the critical percentage of toxic nodes for safe fire evacuation and rescue operations.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>Ochratoxin A (OTA) is one of the most abundant food-contaminating mycotoxins, is detected worldwide in various food and feed sources and its toxicity in animals is more potent than other metabolites. Detected by the analytical methods, in spite of their high sensitivity, these methods are not suitable for analysis in-situ. Hence, this work consists to develop a low cost and portable system to quantify the concentrations of OTA through ownership of fluorescence. That occurs when it is excited with ultraviolet light (UV) at 375nm. First, an UV emitter and a silicon photodiodes were used; the limit of detection (LOD) was 250 ng/mL, a battery as source and an acquisition system with LabVIEW to process the information in a computer. To detect lower levels, a camera and red, blue and green (RGB) components were employed. The LOD was 5 μg/L. The camera detected the fluorescence in the sample when this was excited with UV light, the variation in the intensity of the color is measured and it has relation with the concentration of the sample.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fluorescence;Sensor arrays;Detectors;Optical sensors;Light emitting diodes;Photodetectors;Biomedical optical imaging;Fluorescence;Optic methods;OTA</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2022.3221757</t>
+          <t>10.1109/GMEPE-PAHCE.2017.7972087</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Yen, Hong-Hsu, Lin, Cheng-Han, Tsao, Hung-Wei</t>
+          <t>Bueno, D., Munoz, R., Marty, J.L.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The 33rd IEEE International Conference on Plasma Science, 2006. ICOPS 2006. IEEE Conference Record - Abstracts.</t>
+          <t>2011 IEEE Nuclear Science Symposium Conference Record</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Soil treatment using ozone and nitric monoxide produced by pulsed discharge</t>
+          <t>Optimization of a lead detection instrument using Monte Carlo modeling</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>206-206</t>
+          <t>4646-4648</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Summary form only given. Usage of methyl bromide (CH3Br) for soil sterilization in the agricultural fields was forbidden due to its green house effect. Development of alternative soil sterilization techniques has been an urgent subject. We have proposed a soil treatment using ozone and nitric monoxide (NO) gas. Sterilization of soil using ozone gas seems attractive due to its strong sterilization and no residual toxicity properties. Ozone of high concentration was produced by pulsed RF discharge with high yield, and optimal condition was surveyed under various electrode configurations, applied voltages and duty ratios. NO gas was generated using pulsed arc discharges in the air. Effects of ozone and NO gas on the soil properties such as pH, electrical conductivity (EC), oxidation reduction potential (Eh), and temperature was examined using various sensors. Ozone injected into soil decreased pH and increased EC and temperature of the soil due to oxidization. It was also found ozone sterilized some kinds of bacteria in the soil</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>RMD is developing a safe, inexpensive, and easy to operate lead detector for consumers that can reliably detect dangerous levels of lead in toys and other products. Widespread testing for lead is rarely undertaken until lead poisoning is detected. An inexpensive and easy to use lead detector would enable the identification of highly contaminated objects and areas and allow for timely and cost effective remediation. These efforts will result in an instrument that offers: (1) high sensitivity, to identify objects containing dangerous amounts of lead, (2) low cost to encourage widespread testing by consumers and other end users and (3) convenient operation requiring no training or licensing.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Lead;Detectors;Safety;USA Councils;Consumer products</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10.1109/PLASMA.2006.1707078</t>
+          <t>10.1109/NSSMIC.2011.6154751</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ikegami, T., Ogata, K., Ebihara, K., Nagira, K., Kai, T.</t>
+          <t>Rensing, Noa M., Tiernan, Timothy C., Keemon, Thomas A., Freed, Sara, Glynn, Paul, Bennett, Paul, Squillante, Michael R.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2017 Global Medical Engineering Physics Exchanges/Pan American Health Care Exchanges (GMEPE/PAHCE)</t>
+          <t>OCEANS 2016 - Shanghai</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Low cost and optical detection from fluorescence of Ochratoxin A</t>
+          <t>Impact of brominated flame retardants on embryo development of Atlantic Cod (Gadus Morhua) during early life stages</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ochratoxin A (OTA) is one of the most abundant food-contaminating mycotoxins, is detected worldwide in various food and feed sources and its toxicity in animals is more potent than other metabolites. Detected by the analytical methods, in spite of their high sensitivity, these methods are not suitable for analysis in-situ. Hence, this work consists to develop a low cost and portable system to quantify the concentrations of OTA through ownership of fluorescence. That occurs when it is excited with ultraviolet light (UV) at 375nm. First, an UV emitter and a silicon photodiodes were used; the limit of detection (LOD) was 250 ng/mL, a battery as source and an acquisition system with LabVIEW to process the information in a computer. To detect lower levels, a camera and red, blue and green (RGB) components were employed. The LOD was 5 μg/L. The camera detected the fluorescence in the sample when this was excited with UV light, the variation in the intensity of the color is measured and it has relation with the concentration of the sample.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>Brominated flame retardants (BFRs) are ubiquitous industrial chemicals likely to persistently exist in the environment, bioaccumulate in food chains, and even may cause adverse health effects in human. Borgundfjorden fjord system, an important spawning ground for the Norwegian coastal cod (Gadus morhua) stock, was contaminated by significant levels of pollutants such as BFRs, due to the local previous industrial activities. In this study, we demonstrated high level of the BFRs polybrominated biphenyl ethers (PBDEs) and polychlorinated biphenyls (PCBs) in cod liver and gonad samples from Borgundfjorden using mass spectroscopy (MS) detectors by Norwegian National Institute of Nutrition and Seafood Research (NIFES). Acute embryo toxicity test was further conducted using fertilized cod eggs. The eggs were short-term exposed to serial dilutions of five BFRs mixtures, BDE-47, or PCB mixture Aroclor 1254. At a concentration 10 times that detected in cod liver, the mixture of the five BFRs significantly reduced the embryo survival rate (p &lt;; 0.01). Correspondingly, at 224 μg/L, which was around 10 times of that detected in cod liver, BDE-47 exhibited obvious cod embryo toxicity (p &lt;; 0.01). As a positive control, Aroclor 1254 significantly reduced the embryo survival rate at 400 and 1600 μg/L (p &lt;;0.001). This experiment has laid the foundation for further research on environmentally hazardous impact on the reproductive capacity of aquatic organisms, which will directly influence the fish stocks growing potential and thereby the Norwegian fishery activity.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Embryo;Liver;Chemicals;Fish;Aquaculture;Flame retardants;Sea measurements;Brominated flame retardant;Gadus morhua;Bioaccumulation;Embryogenesis;Larvae</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10.1109/GMEPE-PAHCE.2017.7972087</t>
+          <t>10.1109/OCEANSAP.2016.7485615</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bueno, D., Munoz, R., Marty, J.L.</t>
+          <t>Cao, Yanran, Anne, Stene, Harald, Yndestad, Kommisrud, Elisabeth</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proceedings of the 2014 Biomedical Sciences and Engineering Conference</t>
+          <t>2009 3rd International Conference on Bioinformatics and Biomedical Engineering</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Revealing the structural details of huntingtin fibrils using small-angle neutron scattering</t>
+          <t>Risk Assessment of Classic Endocrine Disrupting Chemicals in Beijing-Tianjin-Tangshan District</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>This terms Endocrine Disrupting Chemicals (EDCs) are also called Environmental Estrogens. The synthetic chemicals in the artifice products may affect the endocrine system, associated with developmental, reproductive and other health problems in wildlife and laboratory animals. In the Beijing-Tianjin-Tangshan district, there are 38.58 million populations. And chemical engineering of petroleum and coal are the main industries. So, the extent of exposure and safety of health are very important for residents in this area. But, there are no enough attentions to focus on the environmental risk and disruption of EDCs. And, Many are chemicals produced for specific purposes and are used in pesticides, plastics, cosmetics, electrical transformers and other products. Then, how to assess so many compounds and determine the risk rank of potential effects on physiological functions? The Priority detected EDCs have been chosen form the many industrial compounds by the system of fuzzy clustering analysis. In this paper, analytic hierarchy process (AHP) has been introduced to accumulate the weight value of the properties parameters for the risk assessment system.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Risk management;Endocrine system;Chemical products;Electrical equipment industry;Electrical products industry;Wildlife;Laboratories;Animals;Chemical engineering;Petroleum</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10.1109/ICBBE.2009.5163354</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Su, Jin, Zhang, Shuichang, Chen, Jianping, Shi, Yumiao, Chen, Boyang</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2011 5th International Conference on Bioinformatics and Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Notice of Retraction: The Extractive of APMP Effluent and It Influence on Biological Treatment</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>1-4</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Huntington's disease (HD) involves an abnormally expanded polyglutamine sequence in huntingtin (Htt) protein that makes it highly susceptible to aggregate. A current challenge is to map out the aggregation pathway by identifying the various precursor structures and establishing their roles in the disease. While it is highly suspected that the early oligomer species are responsible for toxicity, characterizing the end-state fibril structure is also a necessary step toward discovering the underlying mechanisms of early aggregate formation. We are actively investigating Htt structural kinetics and the resulting fibrils using small-angle neutron scattering (SANS). Here, we report on the characterization of fibrils from Htt-exon1-Q40 - a disease relevant Htt peptide as it contains a pathologically expanded glutamine repeat sequence and a proline-rich region. SANS on the end-state fibrils revealed structural similarities to the Perutz β-helixhollow cylinder model as opposed to the more commonly observed steric zipper structure found for many other amyloid fibrils. The structural details we have identified contribute toward elucidating the mechanism of pathological Htt assembly.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>10.1109/BSEC.2014.6867753</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Stanley, Christopher, McWilliams-Koeppen, Helen P., Perevozchikova, Tatiana, Rowe, Erica L., Berthelier, Valerie</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Hydrogen Sulfide (H2S) Gas Sensor: A Review</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2394-2407</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>This paper reviews the most important sensor-based methods that are commonly utilized for detecting and measuring hydrogen sulfide (H2S) gas. It identifies a quite comprehensive overview related to the toxicity and hazardous effects of H2S gas from an individual and environmental health protection perspective. Furthermore, the description, classification, and comparison of the H2S gas sensing technologies are exhibited according to many criteria, such as sensing material, working principle, limit of detection, response time, operating range of gas concentrations, sensor stability, sensitivity, and selectivity toward H2S. Finally, it identifies the limitations of these sensors, suggests the most probably successful future technologies, and highlights the most promising approaches that have been developed for achieving inexpensive hydrogen sulfide gas sensors which could be employed in widespread miniaturized detectors in the real-world applications.</t>
+          <t>Retracted.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10.1109/JSEN.2018.2886131</t>
+          <t>10.1109/icbbe.2011.5780131</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ali, Fajr I. M., Awwad, Falah, Greish, Yaser E., Mahmoud, Saleh T.</t>
+          <t>Liu, Tingzhi, Chang, Fang, Zhao, Hongyu, Li, Hongkai, Duan, Weijiang</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2011 5th International Conference on Bioinformatics and Biomedical Engineering</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Stability of Metal Oxide Semiconductor Gas Sensors: A Review</t>
+          <t>Notice of Retraction: Total Mercury and Methyl Mercury Concentration of Hair in the Residents in Di'er Songhua River Region, Northeast China: Influencing Factors and Health Risk</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5470-5481</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sensor stability is defined as the ability to maintain a relatively stable and repeatable signal over a sufficient period. Long-term stability for gas sensors is an essential capability for carrying out long-term data collection of human exhaled breath, environmental monitoring and other gas detection in the modern electronic information age. This article reviews the research advances on the stability of metal oxide semiconductor gas sensors in the past five years. The impact of structure, environment, toxicity and sensor array on the sensor stability are discussed. Then, the improvement schemes of existing materials and structure design are summarized. The achievements of structure doping, humidity, anti-poisoning and photoactivation are overviewed. Finally, the great significance of elucidating the sensing mechanism and carrying out the life acceleration test for future research and development is pointed out.</t>
+          <t>This article has been retracted by the publisher.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10.1109/JSEN.2022.3148264</t>
+          <t>10.1109/icbbe.2011.5781335</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Chai, Hongfeng, Zheng, Zichen, Liu, Kewei, Xu, Jinyong, Wu, Kaidi, Luo, Yifan, Liao, Hanlin, Debliquy, Marc, Zhang, Chao</t>
+          <t>Lei, Zhang, Lei, Zhang</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2010 Annual International Conference of the IEEE Engineering in Medicine and Biology</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lead-Free CsCu2I3 Perovskite Nanostructured Networks Gas Sensor for Selective Detection of Trace Nitrogen Dioxide at Room Temperature</t>
+          <t>A multiclass multivariate group comparison test: Application to drug safety</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14677-14684</t>
+          <t>4711-4714</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The development of low power consumption sensing devices for detecting trace toxic gases is imperative for a wide variety of applications. Recently, hybrid organic–inorganic lead perovskite-based sensors have been fabricated to demonstrate their potential for gas sensing application. However, the poor repeatability and toxicity of lead halide perovskites severely restrict their further practical applications. Here, the lead-free all-inorganic cesium copper iodide (CsCu2I3) perovskite nanostructured networks are deposited onto interdigital electrodes patterned substrate as the gas sensitive layer via simply spin coating the precursors. The sensor exhibites excellent room temperature NO2 sensing properties, including ultra-low limit of detection, excellent repeatability, and good selectivity. Dynamic testing displays the good cycling repeatability of the sensor for ppb level NO2. The ultra-sensitive NO2 sensing behavior of the CsCu2I3 nanostructure networks are mainly attributed to the unique nanoneedle clusters network structure and large amount of cation vacancies on the perovskite surface. In conclusion, the high sensitivity and environmentally friendly CsCu2I3 sensor shows great potential for trace indoor pollutants detection and breathe analysis for disease diagnosis.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>Hypothesis tests are used to compare and show the efficiency of drugs. However, usual tests do not perform properly whenever the number of variables is greater than, or of the same order of magnitude as, the number of observations. In this paper, we propose an alternative to usual multiclass multivariate group comparison tests such as MANOVA or Wilcoxon tests. We present a pattern recognition approach to compare drugs in high dimensional spaces. Our test is based on the classification probability of error of a classifier. The decision statistics is obtained using the leave one out procedure. The statistics power density function has been experimentally shown independent from the data distribution under the null hypothesis, that allows to determine the threshold, or the p-values, of our test. This test has been applied on clinical data registered to ensure the safety side and tolerability of drugs tested.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Drugs;Pattern recognition;Safety;Detectors;Stability analysis;Probability density function;Covariance matrix</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10.1109/JSEN.2021.3071744</t>
+          <t>10.1109/IEMBS.2010.5626384</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sun, Xia, Yang, Jie, Wu, Zhilin, Meng, Gang, Guo, Xuezheng, Kuang, Delin, Xiong, Lian, Qu, Weijie, Fang, Xiaodong, Yang, Xi, Tang, Xiaosheng, He, Yong</t>
+          <t>Tohmé, Mireille, Lengellé, Régis, Freytag, Virginie</t>
         </is>
       </c>
     </row>
@@ -1979,291 +2143,1531 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A Silver-Based Miniature Gas Sensor for Hydrogen Sulfide Detection</t>
+          <t>Demonstration of LGADs and Cherenkov Gamma Detectors for Prompt Gamma Timing Proton Therapy Range Verification</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3469-3474</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hydrogen sulfide ( $\text{H}_{{2}}\text{S}$ ) exists widely in many industrial processes and natural environments. Due to its high toxicity and flammable, detection of $\text{H}_{{2}}\text{S}$ is critical for safety and health at work place and industrial process control. In this article, we report a novel miniature gas sensor, which has a high selectivity in $\text{H}_{{2}}\text{S}$ detection. The sensor is based on the principle of silver reacting with $\text{H}_{{2}}\text{S}$ with a strict condition and a fast speed at high temperature. The limit of detection (LOD) is 1.4 parts-per-million (ppm) in ambient conditions and can be further reduced to ~ppb-lever by improving the working temperature and suppressing the noise of the sensor system. Compared with the conventional $\text{H}_{{2}}\text{S}$ sensors, this sensor has advantages of miniaturization, low cost, high selectivity, and excluding electrolytes in the analyte detection.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>The great potential for precision dose delivery with proton therapy remains to be fully exploited, largely due to uncertainties in range that require additional conservative treatment margins. Analysis of time distributions from prompt gamma-ray emissions offers a means to precisely verify the range in real time and shrink treatment margins, thus increasing effectiveness and reducing toxicity. We demonstrate a prototype prompt gamma timing system to detect proton range shifts, based on Low Gain Avalanche Detectors, used to time incoming protons, and Cherenkov detectors, to time the outgoing prompt gammas. With this system, we are able to detect range shifts induced in a PMMA phantom with about 1 mm precision consistently.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Detectors;Protons;Timing;Plasmas;Particle beams;Thallium;Production;Gamma-rays;Tumors;Sensors;Prompt gamma timing;proton range verification;LGAD;Thallium Bromide;Thallium Chloride;Cherenkov detector</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10.1109/JSEN.2022.3233815</t>
+          <t>10.1109/TRPMS.2024.3494720</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Tian, Xin, Li, Yan, Zhao, Jia, Tao, Jifang</t>
+          <t>Heller, Ryan, Ellin, Justin, Backfish, Michael, Cates, Joshua W., Choong, Woon-Seng, Kratochwil, Nicolaus, Prebys, Eric, Rebolo, Leonor, James, Sara St., Ariño-Estrada, Gerard</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2014 IEEE Global Communications Conference</t>
+          <t>2016 International Conference on Electrical, Electronics, and Optimization Techniques (ICEEOT)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GuidedTracker: Track the victims with access logs to finding malicious web pages</t>
+          <t>Synthesis, characterisation and gas sensing application of Sb-doped ZnO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>564-569</t>
+          <t>2579-2582</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Malicious web pages have become a malignant tumour for the Internet, which spread malicious code, steal people's private information, and deliver spamming advertisements. And how to distinguish them from the huge number of normal web pages effectively remains a huge challenge in the era of big data. To detect malicious pages, one needs to first collect candidate web pages that are live on the web; then filter massive legitimate pages using fast filters and finally examine the remaining pages using precisely but slow analyzer. However, there are new challenges recently for these conventional techniques, including large scale, imbalance data and the usage of cloaking techniques. To cope with these challenges, the malicious URL detection system should perform more efficiently. In this paper, we propose a system, named GuidedTracker, to search for suspicious malicious pages. GuidedTracker starts from the seed set which includes known malicious pages. Then, it automatically figures out those victims based on the seed set and the visit relation database. Finally, the access records of these victims are used to identify other malicious pages. In this way, GuidedTracker increase the percentages of malicious URLs in the input URL stream submitted to the precisely analyzer. To our best knowledge, GuidedTracker is the first to introduce visit relations to tackle the malicious URL detection problem. The introduction of visit relations limits the scope of URL inspection and enables this approach to have the ability of self-learning. Experimental results show that the overall "toxicity" can be improved by 6.97%-50.38% compared with full inspection of access logs.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>ZnO and Sb-doped ZnO nanostructures were synthesized using microwave assisted precipitation method. Thick films of prepared powders were fabricated using screen printing method. The X-ray diffraction studies show that the nanostructures are crystallized in the form of hexagonal Wurzite crystalline phase and Sb-doping does not change the structure of ZnO. The size of nanostructures decreases with increasing the Sb+3-doping. Field emission scanning electron microscope (FESEM) images show the change in morphology and size of nanostructures are changing with change in doping percentage of Sb+3. The UV-visible spectra shows the increase in band gap with increasing the Sb +3-doping percentage. The gas sensitivity of pure and Sb+3-doped ZnO nanostructures was studied. The gas sensitivity of the films was improved with the doping of 7% Sb+3 in ZnO.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Zinc oxide;II-VI semiconductor materials;Nanostructures;Thick films;Gas detectors;Sb-doped ZnO;microwave assisted synthesis;nanostructures;thick films</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10.1109/GLOCOM.2014.7036867</t>
+          <t>10.1109/ICEEOT.2016.7755158</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sha, Hongzhou, Liu, Qingyun, Zhou, Zhou, Zheng, Chao</t>
+          <t>Patil, Yogita S., Raghuvanshi, F. C., Patil, I. D.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'Challenges of Our Changing Global Environment'. Conference Proceedings. OCEANS '95 MTS/IEEE</t>
+          <t>2022 IEEE/ACM 44th International Conference on Software Engineering: Software Engineering in Society (ICSE-SEIS)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Contaminant flux measurements across the sediment-water interface in San Diego Bay</t>
+          <t>Detecting Interpersonal Conflict in Issues and Code Review: Cross Pollinating Open- and Closed-Source Approaches</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1700-1713 vol.3</t>
+          <t>41-55</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Marine sediments often serve as important sinks for anthropogenic contaminants from the overlying water column. In certain cases the sediments may also serve as contaminant sources, releasing contaminants later when water column and/or pore water conditions change. Variations in sediment chemical and physical properties make it impossible to rely on bulk sediment contaminant concentrations alone to predict contaminant flux, bioavailability, and therefore toxicity. In situ measurements of contaminant fluxes across the sediment-water interface provide important information for addressing these concerns. The Navy has recently developed the Benthic Flux Sampling Device (BFSD) to assess contaminant fluxes across the sediment-water interface. The BFSD has recently undergone several modifications to allow improved operation. The oxygen regulation system has been modified to allow better control of chamber oxygen levels. Some deployments have utilized real-time sensors that allow monitoring of BFSD operations and offer the potential to serve as field-screening tools to evaluate contaminant mobility. These real-time sensor techniques include potentiometric stripping analysis (PSA) for metals and laser-induced fluorescence (LIF) for hydrocarbon contaminants. As part of the Navy's ongoing program to monitor environmental conditions in San Diego Bay, this study used multiple deployments of the BFSD to assess contaminant fluxes across the sediment-water interface. In coastal areas, directly measured BFSD fluxes are often preferable to model-dependent fluxes obtained from pore water profiles. Target contaminants in this study included the trace metals Cd, Cu, Ni, Pb, and Zn. Initial results indicate fluxes occur both into and out of the sediments depending on contaminant type and site location. The metals that showed the most consistent flux out of the sediments included Zn and Mn.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>Interpersonal conflict in code review, such as toxic language or an unnecessary pushback, is associated with negative outcomes such as stress and turnover. Automatic detection is one approach to prevent and mitigate interpersonal conflict. Two recent automatic detection approaches were developed in different settings: a toxicity detector using text analytics for open source issue discussions and a pushback detector using logs-based metrics for corporate code reviews. This paper tests how the toxicity detector and the pushback detector can be generalized beyond their respective contexts and discussion types, and how the combination of the two can help improve interpersonal conflict detection. The results reveal connections between the two concepts. LAY ABSTRACT Software engineers often communicate with one another on platforms that support tasks like discussing bugs and inspecting each others‘ code. Such discussions sometimes contain interpersonal conflict, which can lead to stress and abandonment. In this paper, we investigate how to automatically detect interpersonal conflict, both by analyzing the text of the what the engineers are saying and by analyzing the properties of that text.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Measurement;Codes;Toxicology;Computer bugs;Detectors;Feature extraction;Software;code review;interpersonal conflict</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10.1109/OCEANS.1995.528740</t>
+          <t>10.1145/3510458.3513019</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Leather, J.M., Chadwick, D.B., Koon, G.H.</t>
+          <t>Qiu, Huilian Sophie, Vasilescu, Bogdan, Kästner, Christian, Egelman, Carolyn, Jaspan, Ciera, Murphy-Hill, Emerson</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022 IEEE 12th International Conference on Control System, Computing and Engineering (ICCSCE)</t>
+          <t>2011 International Symposium on Water Resource and Environmental Protection</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Design and Development of Fuzzy Logic Based Car Cabin Pollution Monitoring System</t>
+          <t>Occurrence features and leaching migration of chloroform in shallow groundwater</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>191-196</t>
+          <t>31-34</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>This paper presents the development of air quality monitoring system based on internet of things, IOT application to control the concentration of carbon dioxide gas and carbon monoxide gas in car cabin. Carbon monoxide is one most dangerous gas and nowadays there were many fatal cases happen caused by the gas leakage, while increasing of the concentration carbon dioxide will reduce oxygen level in the air, thus can cause the driver to be fatigue, and sleepiness. Moreover, gas detector usually not installed in nowadays car. To develop smart air quality monitoring system, Arduino MKR 1010, CJMCU 811(carbon dioxide sensor), MQ-7(carbon monoxide sensor), Adafruit io application, IFTTT, Webhooks, Telegram, and MATLAB fuzzy logic toolbox were used. Furthermore, Fuzzy Logic Controller (FLC) was used to analyze the input and produce the system's output decisions on the level of gas toxicities. The five levels of gas toxicities are very safe, safe, warning, high, and very high. The decision of gas level will be sent to IOT application which is Adafruit and then triggered the three types of LED indicator, power window motor, buzzer, and signal to webhook to send the Telegram. Besides, Adafruit IO also act as the platform to present the data of gases graph pattern. In addition, MATLAB fuzzy logic toolbox was used to make comparison between the result of Arduino analysis with the value of simulation. Furthermore, Telegram messenger also act as a medium to notify the users. Based on the system evaluation, this system has performed well in analysing the gas concentrating inputs and show stable IOT interactions in triggering related warning and safety devices.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>Through the testing, research and analysis of the 390 samples of shallow groundwater in Hutuo alluvial plain, this paper illustrates the pollution characteristics of high Chloroform detection rate and wide distribution, through analysis obtains the conclusion that the main pollution sources are industrial enterprises and sewage drainage rivers and channels, determines the distribution of pollution sources and makes clear that the direct cause affecting the halogenated hydrocarbon pollution in the region is the lithology of the unsaturated zone. In addition, the GUS value of Chloroform is calculated through EPI Suit, and the leaching migration is preliminarily discussed.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Water pollution;Hydrocarbons;Rivers;Soil;Environmentally friendly manufacturing techniques;Leaching;chloroform;detection rate;toxicity;GUS;EPI suit</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10.1109/ICCSCE54767.2022.9935658</t>
+          <t>10.1109/ISWREP.2011.5892938</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bin Kamal Abdul, Muhammad Zaim, Nayan, Badrul Amin, Yahaya, Saiful Zaimy, Boudville, Rozan, Ahmad, Khairul Azman, Husin, Nurul Izza Binti</t>
+          <t>Li, Ya-song, Zhang, Zhao-ji, Fei, Yu-hong, Wang, Zhao, Qian, Yong, Chen, Jing-sheng, Zhang, Feng-e</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OCEANS 2016 - Shanghai</t>
+          <t>2012 19th International Conference on Mechatronics and Machine Vision in Practice (M2VIP)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Impact of brominated flame retardants on embryo development of Atlantic Cod (Gadus Morhua) during early life stages</t>
+          <t>FPGA-based bio-cybernetic system for lab-on-a-chip automation</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>140-145</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brominated flame retardants (BFRs) are ubiquitous industrial chemicals likely to persistently exist in the environment, bioaccumulate in food chains, and even may cause adverse health effects in human. Borgundfjorden fjord system, an important spawning ground for the Norwegian coastal cod (Gadus morhua) stock, was contaminated by significant levels of pollutants such as BFRs, due to the local previous industrial activities. In this study, we demonstrated high level of the BFRs polybrominated biphenyl ethers (PBDEs) and polychlorinated biphenyls (PCBs) in cod liver and gonad samples from Borgundfjorden using mass spectroscopy (MS) detectors by Norwegian National Institute of Nutrition and Seafood Research (NIFES). Acute embryo toxicity test was further conducted using fertilized cod eggs. The eggs were short-term exposed to serial dilutions of five BFRs mixtures, BDE-47, or PCB mixture Aroclor 1254. At a concentration 10 times that detected in cod liver, the mixture of the five BFRs significantly reduced the embryo survival rate (p &lt;; 0.01). Correspondingly, at 224 μg/L, which was around 10 times of that detected in cod liver, BDE-47 exhibited obvious cod embryo toxicity (p &lt;; 0.01). As a positive control, Aroclor 1254 significantly reduced the embryo survival rate at 400 and 1600 μg/L (p &lt;;0.001). This experiment has laid the foundation for further research on environmentally hazardous impact on the reproductive capacity of aquatic organisms, which will directly influence the fish stocks growing potential and thereby the Norwegian fishery activity.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>10.1109/OCEANSAP.2016.7485615</t>
-        </is>
-      </c>
+          <t>In recent years, Lab-on-a-Chip technology has been widely applied to the pharmaceutical and eco-toxicity domains, together with the use of zebrafish as the model organism for performing fish embryo toxicity assay. However, the requirement of constant human attention and lack of fully automated systems have lead into low throughput and slow turnaround time for the experiments. In this paper, a novel FPGA-based bio-cybernetic system is designed to work with Lab-on-a-Chip devices in these experiments for handling zebrafish embryos, controlling chemical liquid perfusion, maintaining micro-environment and acquiring image data periodically for the analysis of embryo development. These functionalities have been demonstrated in the designed system by performing multiple 40-hour continuous experiments.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Temperature measurement;Embryo;Temperature sensors;Temperature control;DC motors;Pulse width modulation;Thermistors;Lab-on-a-Chip;MEMS;Bio-cybernetic system;FPGA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cao, Yanran, Anne, Stene, Harald, Yndestad, Kommisrud, Elisabeth</t>
+          <t>Wang, Kevin I-Kai, Yeh, Johnny, Salcic, Zoran, Akagi, Jin, Wlodkowic, Donald</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024 IEEE Nuclear Science Symposium (NSS), Medical Imaging Conference (MIC) and Room Temperature Semiconductor Detector Conference (RTSD)</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Exploring high-entropy design in rare-earth aluminum garnet scintillators</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cargo inspection via high-energy X-ray radiography is an important imaging modality for national security applications where 2-9 MeV X-rays are used to identify contraband through non-intrusive inspection. CdWO4 single crystal scintillator is a common detector material for this application, however, it suffers from a relatively low light yield and toxicity. As the need for this imaging capability grows, a search for new scintillator materials for this application is ongoing. In this work, single-component, multi-component, and high-entropy aluminum garnet ceramics are synthesized to investigate the effect configuration entropy has on the scintillation properties. In addition, the composition (Y,Gd,Tb,Lu)3Al5O12:Ce is investigated for use in high-energy X-ray radiography applications. Aluminum garnet powders are synthesized via a wet chemistry method and are densified into ceramics via uniaxial hot pressing. XRD measurements are done to confirm the phase purity of powders and ceramics. Scintillation properties such as light yield, decay time, and afterglow are evaluated. Radiation hardness is evaluated through the measurement of scintillation properties before and after irradiation with a ${ }^{60} \mathrm{Co}$ source. It is found that afterglow is suppressed in the compositions with greater configurational entropy.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Temperature measurement;Radiography;Semiconductor device measurement;Scintillators;Powders;Garnets;Aluminum</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10.1109/NSS/MIC/RTSD57108.2024.10657843</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Anderson, K., Gillespie, N., Muller, M., Glodo, J., Wang, Y., Stand, L., Melcher, C., Zhuravleva, M.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Incorporation of a fluoroscopic X-ray modality in a small animal imaging system</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>333-338</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>The authors have developed a multimodality system for imaging the biodistribution of biologically interesting ligands tagged with /sup 125/I. By incorporating a small fluoroscope as an additional modality, they have enhanced their small animal nuclear imaging system to include both X-rays and images from two Hamamatsu R3292 5" diameter position sensitive photomultiplier tubes (PSPMT) viewing pixelated scintillators with image co-registration of 1.5 mm or better. Collimators placed between the animal and the scintillators can easily be interchanged and include CuBe parallel-hole collimators with a range of resolution and sensitivity combinations. The small X-ray fluoroscope provides 5 cm diameter images, several of which can readily be combined to provide structural anatomical information from the animal under study. The system has been tested by comparing the uptake of /sup 125/I (in NaI) in control mice and mice previously fed a solution of KI (potassium iodide) designed specifically to block uptake of the radiolabeled iodine in the thyroid. This system not only provides an effective approach for the analysis of KI dose and toxicity issues but also allows for detection of individual variation in animals, an important issue in contemporary pharmacology and genomics.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>X-ray imaging;Animals;Optical imaging;Collimators;Mice;Nuclear imaging;Photomultipliers;Pixel;System testing;Radio control</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10.1109/TNS.2003.812438</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Saha, M.S., Bradley, E.L., Brewer, P., Gleason, K.K., Kross, B., Majewski, S., Popov, V., Qian, J., Ranck, A., Smith, K., Smith, M.F., Weisenberger, A.G., Wojcik, R., Welsh, R.E.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2013 35th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Measurement and analysis of Vibrio Fischeri cell-based microfluidic device for personal health monitoring</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2433-2436</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>The cell-based microfluidic chip was designed and fabricated as a low-cost detector to continuously monitor toxicants in drinking water or human urine samples, which is expected to be an important component of a household health monitoring system in the future. The bioluminescent bacterium, Vibrio Fischeri, was selected to validate the function of device. Water samples and Vibrio fischeri cells were mixed and encapsulated into droplets in air flow, which can guarantee sufficient oxygen supply for cells in droplets. Preliminary tests were performed using copper ion (Cu2+) as the model toxicant. The droplet system was measured and analyzed at various flow rates in different observation chambers. Both deionized water and human urine samples were tested in the cell-based device. Interestingly, a strong relation between the R.L.U. (Relative Luminescence Units) in the observation chamber and the minute concentration of toxicant (Cu2+) was found using deionized water as solvent, whereas the relation was insignificant using human urine as solvent. This study showed the Vibrio fischeri cell-based device might be reliably employed as an early-warning system for the safety of drinking water. However, Vibrio fischeri is not competent to detect dangerous mThe cell-based microfluidic chip was designed and fabricated as a low-cost detector to continuously monitor toxicants in drinking water or human urine samples, which is expected to be an important component of a household health monitoring system in the future. The bioluminescent bacterium, Vibrio Fischeri, was selected to validate the function of device. Water samples and Vibrio fischeri cells were mixed and encapsulated into droplets in air flow, which can guarantee sufficient oxygen supply for cells in droplets. Preliminary tests were performed using copper ion (Cu2+) as the model toxicant. The droplet system was measured and analyzed at various flow rates in different observation chambers. Both deionized water and human urine samples were tested in the cell-based device. Interestingly, a strong relation between the R.L.U. (Relative Luminescence Units) in the observation chamber and the minute concentration of toxicant (Cu2+) was found using deionized water as solvent, whereas the relation was insignificant using human urine as solvent. This study showed the Vibrio fischeri cell-based device might be reliably employed as an early-warning system for the safety of drinking water. However, Vibrio fischeri is not competent to detect dangerous materials in a complex biofluid. With the replacement of cell sensors, the microfluidic device might be functional to analyze urine samples in theory.aterials in a complex biofluid. With the replacement of cell sensors, the microfluidic device might be functional to analyze urine samples in theory.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Monitoring;Biosensors;Microfluidics;Chemicals;Chemical sensors;Biomedical monitoring</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>10.1109/EMBC.2013.6610031</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Zhao, Xinyan, Dong, Tao</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2019 22nd European Microelectronics and Packaging Conference &amp; Exhibition (EMPC)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Investigation of the Microstructure of Mn-doped Tin-Silver-Copper Solder Alloys Solidified with Different Cooling Rates</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Due to the moderate price and the non-toxicity, manganese is considered as an ideal dopant for the SAC (SnAgCu) solder alloys. Manganese refines the grain of solder joints, yielding better thermomechanical properties. In present research, the microstructure of the manganese-doped alloys solidified with different technological parameters had been investigated. Sn/Ag0.3/Cu0.7 based solder alloy with three different Mn content (0.1, 0.4, 0.7% wt%= were reflowed on a copper substrate with tempered hot plate. They were solidified with different cooling rates from 0.3 to 4.5 K/s. Cross-sections have been prepared from the solder samples and the metallographic properties of the solder samples was investigated with optical and scanning electron microscopes. The characteristic features of the samples have been compared to conventionally used SAC305 (Sn/Ag3/Cu0.5= solder alloys, solidified with the same rates of cooling. Results showed that besides the grain refinement, the Mn content might also have effect on the evolution of intermetallic layer between the substrate and the solder alloy. The IMC grains of the layer were more elongated and more spalled grains had been observed close to the layer. However, independently of the cooling rate, the microstructure of the Mn containing solder alloys remained the same. This suggests that the macroscopic properties are also expected to be less sensitive to the cooling rate of the solidification.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>lead-free soldering;manganese doping;cooling rate;selective electrochemical etching;scanning electron microscopy.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10.23919/EMPC44848.2019.8951866</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hurtony, Tamás, Krammer, Oliver, Illés, Balázs, Gordon, Péter</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2020 IEEE MIT Undergraduate Research Technology Conference (URTC)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>A Novel Approach to Toxic Gas Detection using an IoT Device and Deep Neural Networks</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Smoking remains one of the top 3 causes of illness in the US, one of top 5 causes of fire hazards in a home and is the single most preventable cause of illness and premature death in the US. The use of Deep Neural Networks in tandem with advances in the sensitivity of gas sensor technology can enable detection of cigarette/Vape smoke much sooner and with much higher accuracy than conventional smoke/carbon monoxide detectors used today. We report a hardware demonstration and prototype that engages Classifiers to not only discriminate cigarette/vape emissions from other sources of smoke and carbon monoxide such as burning coal, wood or food - typically not possible with conventional smoke detectors, but also to accurately detect cigarette/vape smoke produced in a large space (7K ft3) from a single cigarette when concentrations of component gases of cigarette smoke are extremely low. Our prototype also demonstrates the opportunity to classify and discriminate different levels of toxicity and flammability for spaces used by different people enabling AI based sensing at scale where besides accuracy and speed, the utility of larges sets of sensor nodes are critical to enabling cost advantages over conventional detector technology.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Deep learning;Gases;Toxicology;Sensitivity;Neural networks;Prototypes;Detectors;DNN;IoT;Cigarette Smoke Detection;Gas Sensors</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10.1109/URTC51696.2020.9668871</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Bhavnagarwala, Ibrahim, Bhavnagarwala, Adam</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023 22nd International Conference on Solid-State Sensors, Actuators and Microsystems (Transducers)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Static and Dynamic MEMS Inertial Gas Sensors</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1105-1108</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>We report on a wearable hazardous gas detection system. It combines high sensitivity with the ability to functionalize various sensors on the same chip with different detector polymers to target a range of toxic analytes and volatile organic compounds (VOCs), including chemical warfare agents (CWAs). The sensors were fabricated using a silicon-on-insulator MEMS process and can operate in both static and dynamic bifurcation modes. The experimental results show that the static and dynamic MEMS sensors equipped with the formaldehyde sensing polymers can serve as a detector for formaldehyde below its 2-ppm level of toxicity.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Micromechanical devices;Volatile organic compounds;Chemical sensors;Transducers;Toxicology;Detectors;Bifurcation;Bifurcation sensors;gas sensing;MEMS;static and dynamic detection</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Ou, Matthew, Shama, Yasser S., Mavani, Bhoomi, Arabi, Mohamed, Saritas, Resul, Abdelrahman, Rana, Rahmanian, Sasan, Elhady, Alaaeldin, Mansour, Raafat, Penlidis, Alexander, Abdel-Rahman, Eihab M.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2008 IEEE Nuclear Science Symposium Conference Record</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Low overdrive voltage and low current compact comparator for a diamond dosimeter ASIC</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2043-2047</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The dosimeters for radiotherapy must comply to strict requirements in terms of sensitivity, toxicity, tissue equivalence and radiation hardness. At present time both silicon and diamond dosimeters are used as solid state devices and in recent years, monocrystalline diamond sensors have been grown with CVD techniques. Due to the low current signals, the sensor readout is made by electrometers connected to the device with multi wire shielded cables. This measurement setup may be a serious limitation for practical application of these sensors, and makes impossible the use of matrix sensors. We present some functional block design for an ASIC that could replace the electrometer and the cabling for the measurements. The system will be realized by an hybrid assembly with the detector, or the detector matrix, very closely placed and wire bonded to the readout ASIC. The device is designed in 180 nm UMC technology with dual power supply, 3.3 V for the analog front end, in order to extend the signal dynamic, and 1.8 V for the control logic.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Low voltage;Application specific integrated circuits;Wire;Cable shielding;Detectors;Silicon;Solid state circuits;Assembly systems;Bonding;Signal design</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>10.1109/NSSMIC.2008.4774859</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Petulla, F., de Notaristefani, F., Cencelli, V. Orsolini, D'Abramo, E., Fabbri, A., Riondino, D., Marinelli, M., Verona-Rinati, G.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021 IEEE Sensors</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CuFeSe2 Quantum-Dot Based Infrared Photodetectors with Functionality in the Ambient</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Applications such as infrared cameras and detectors have driven efforts to discover novel infrared materials. Quantum dots have been demonstrated as sensitive and tunable infrared absorbers. Most successful quantum dots are prepared from heavier II-VI materials based on mercury and therefore pose toxicity hazards. Here we investigate CuFeSe2 quantum dots as a potential solution processed, minimally hazardous photodetector material for the fabrication of devices with functionality in the ambient. Following characterization of the nanocrystals through Transmission Electron Microscopy (TEM) and their absorption spectrum with infrared spectroscopy, we demonstrate infrared and visible light detection with two device architectures. A Metal-Semiconductor-Metal (MSM) photoconductor shows optoelectronic response with infrared light, and a p-n heterojunction shows the characteristic I-V curve with a broadband visible-infrared light source. We thus demonstrate the application of CuFeSe2 quantum dots as an infrared active material, and its heterojunction with silicon as a promising photodetector device.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Spectroscopy;Toxicology;Absorption;Transmission electron microscopy;Quantum dots;Heterojunctions;Sensor phenomena and characterization;Infrared detector;quantum dots;photodiode</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>10.1109/SENSORS47087.2021.9639657</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Kumar, Tanuj, Sugathan, Anumol, Narasimhan, K. L., Pandey, Anshu, Avasthi, Sushobhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2009 3rd International Conference on Bioinformatics and Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Determination of Triclosan in Wastewater Using Solid Phase Extraction and High Performance Liquid Chromatography with Ultra-Violet Detection</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>As fungicides or preservatives in pharmaceutical and personal care products (PPCPs), triclosan (TCS) is widespread in the environment. Under low concentration, the toxicity of triclosan is not obvious, but under certain conditions, it can be converted into other substances, whose toxicity has already caused concerns. A method for analysis of tricosan in water using solid phase extraction (SPE) and high performance liquid chromatography(HPLC) with Ultra-Violet(UV) detection was developed. Conditions of gradient elution and HPLC separation of the toxicant were also optimized. Detection limit of the method was found to be 3.91 ng/L. Relative standard deviation(RSD) was around 2.02 ~ 4.69%. The average recovery of triclosan was around 93.68~97.42%. With this method, water samples of three wastewater treatment plants in Shanghai were detected. Results showed that the concentration of triclosan ranged from 533 ng/L to 774 ng/L in raw wastewater samples and from 80.14 ng/L to 249.72 ng/L in the effluent samples. The removal efficiencies of the entire processes ranged from 62.59% to 67.74%.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Solids;Phase detection;Wastewater treatment;Effluents;Chemicals;Pollution control;Educational institutions;Pharmaceuticals;Performance analysis;Sediments</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>10.1109/ICBBE.2009.5162633</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Zhou, Xuefei, Zhou, Shi-Bing, Zhang, Yalei, Shi, Lu</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Stable and Sensitive Tin-Lead Perovskite Photodetector for Pulse Oximetry Sensing</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1570-1573</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Although hybrid Sn-Pb halide perovskite with narrow bandgap and low toxicity are promising next generation semiconductor materials for visible to near-infrared detection, previous Sn-Pb perovskite photodetectors are still limited because of the insufficient performance and stability caused by high defect densities and oxidation of Sn $^{{2}+}$ . Here an additive 1,1-Carbonyldiimidazole is introduced, which can reduce surface defect and inhabit the oxidation by providing lone pairs of electrons to effectively passivate low coordination Pb $^{{2}+}$ and Sn $^{{2}+}$ of perovskite film. As such, for the photodetectors with 1,1-Carbonyldiimidazole, the dark current density reduces from ${1}.{88}\times {10} ^{-{3}}$ mA cm $^{-{2}}$ to ${6}.{27}\times {10} ^{-{5}}$ mA cm $^{-{2}}$ at −0.1 V, and the reliable stability of over 300 days is achieved, enabling successfully monitoring of pulse and oximetry. It is believed that the passivation layer based on 1,1-Carbonyldiimidazole provides a universal strategy to achieve stable and sensitive Sn-Pb perovskite detectors.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Perovskites;Detectors;Photodetectors;Passivation;Pulse oximetry;Lead;Stability;Sn-Pb perovskite;photodetectors;stability;passivation</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>10.1109/LED.2024.3434615</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Chen, Hongxu, Zhang, Xinren, Feng, Baigong, Jiang, Jizhong, Hu, Gangjian, Ma, Yao, Zhao, Yi, Shen, Liang</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2011 IEEE Nuclear Science Symposium Conference Record</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BrachyView: A novel in-body imaging system for prostate brachytherapy</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>279-281</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>The dosimetric quality of seed implants is a crucial part of the prostate brachytherapy treatment procedure. Incorrect seed placement during or after deployment leads to both short and long term complications, including urethral and rectal toxicity. The BrachyView system is a fast intraoperative planning system, providing real-time dosimetric information by acting as an in-body gamma camera. It incorporates three tiled Medipix2 pixellated detectors coupled to a multi-pinhole collimator. Three-dimensional reconstructed images from multiple planar images are used to determine the seed placement in real time. The seed image, when fused with the ultrasound dataset, provides both anatomical and dosimetric information and can overcome the shortcomings of current ultrasound imaging techniques. This paper presents the results of preliminary studies carried out in a PMMA prostate phantom. It is demonstrated that the technique provides an effective and practical intraoperative treatment planning mechanism for permanent prostate brachytherapy (PPB) treatments.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Biomedical imaging;Detectors;USA Councils;Brachytherapy;Image reconstruction</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>10.1109/NSSMIC.2011.6154497</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Loo, Kevin, Petasecca, Marco, Safavi, Mitra, Lerch, Michael, Han, Zhangbo, Jakubek, Jan, Pospisil, Stanislav, Meikle, Steven, Zaider, Marco, Bucci, Joseph, Rosenfeld, Anatoly</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2008 8th IEEE International Conference on BioInformatics and BioEngineering</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Automatic quality assessment for fluorescence microscopy images</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Fluorescence microscopy imaging is a constant trade off between signal to noise ratio, total observation time and spatio-temporal resolution due to photo toxicity. In this paper, we propose a method to estimate the quality of a fluorescent image acquisition, from a single image, taking into account both signal dependent and signal independent noise. We propose a method for the calculation of the signal to noise ratio globally and locally. We validated our algorithm on real experimental data and data with known simulated noise. Results allow us to conclude that this fully automatic method provides a good quantification of the image quality.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Quality assessment;Fluorescence;Microscopy;Crosstalk;Signal to noise ratio;Additive noise;Noise level;Gaussian noise;Background noise;Image resolution</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>10.1109/BIBE.2008.4696665</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Paul, Perrine, Kalamatianos, Dimitrios, Duessmann, Heiko, Huber, Heinrich</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2011 International Conference on Computer Distributed Control and Intelligent Environmental Monitoring</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>A Preliminary Study on Shallow Groundwater Organic Pollution in the Alluvial Plain of Hutuo River</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>678-682</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Groundwater is the source of main agricultural, industrial and domestic water in the Alluvial Plain of Hutu River, the pollution degree of groundwater directly affects habitants state of health in the area. In order to explain the condition of shallow groundwater organic pollution under the influence of human activities, the Alluvial Plain of Hutuo River was selected as the main study area, and then by a large amount of groundwater sampling, analysis and test, we analyzed the characteristics of shallow groundwater organic pollution. The results show that shallow groundwater has been under threat of organic pollution in the area, the main detected organic components are halogenated hydrocarbons, polyaromatics and chlorobenzenes, among which the detection rate of trichloromethane amounts to 14.02%; Over-standard organics samples are sparse, but the over-standard concentrations are high, the main over-standard component is tetrachloromethane. Because of the high toxicity of organics, organic pollution has become unable to be neglected in the study area.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Monitoring;Computers;Distributed control;organic pollution;evaluation;detection limits;detection rate;trichloromethane</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10.1109/CDCIEM.2011.355</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Li, Yasong, Zhang, Zhaoji, Fei, Yuhong, Qian, Yong, Meng, Suhua</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024 36th Chinese Control and Decision Conference (CCDC)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>An Automatic and Active Fire Protection Self-control Non-Blaze Surrounding System</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2318-2323</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>To address the challenges posed by the potential toxicity and slow response of traditional fire suppression systems in high-security areas such as archives and museums, this study presents the design of an active fire suppression oxygen reduction automatic control system, hereinafter referred to as the Non-Blaze Surrounding system. This system consists of a nitrogen production module, an environmental monitoring module and is capable of real-time adjustment of oxygen levels within the space. By reducing the supply of oxygen, the possibility of fire occurrence is diminished while also safeguarding personnel. Experiments conducted in a custom-designed storage facility for cultural relics demonstrated the system’s ability to stabilize oxygen concentration at 16%, thereby validating its functionality and effectiveness.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Temperature sensors;Temperature measurement;Toxicology;Production;Real-time systems;Museums;Personnel;Automatic control system;Environmental monitoring;Oxygen concentration;Fire occurrence probability</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>10.1109/CCDC62350.2024.10588190</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Song, Ruifeng, Yan, Liang</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Novel Smoke-Aware Individual Evacuation and Congestion-Aware Group Evacuation Algorithms in IoT-Enabled Multi-Story Multi-Exit Buildings</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>119402-119418</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Because of toxic gases and fast propagation speed, smoke causes the major injuries and deaths than burns in the fire. Deploying IoT enabled smoke sensors not only help to sense, collect, and transmit the smoke data to the control station, but also enable a dynamic and real-time evacuation approach to increase the evacuation success probability. In this paper, two smoke-aware evacuation approaches are proposed. The individual evacuation mathematical model and the associated SIEP algorithm are first devised to identify a fastest smoke toxic safe evacuation path for an evacuee. Next, the group evacuation mathematical model and the associated SGEP algorithm are devised to evacuate as many evacuees as possible in considering the smoke toxicity and flow congestion along the evacuation routes. SGEP circumvents the congestion problem by scheduling the evacuation sequence according to evacuee’s accumulated smoke toxicity value, where higher accumulated smoke toxicity value has higher evacuation priority to prevent incapacitation at evacuation. The FDS simulations based on the real layout of Taipei 101 mall are performed to compare the evacuation success probability between SIEP and SGEP at methane fire and PVC fire. The simulation results show that smoke from PVC fire is more toxic than that of methane fire. In addition, enabling sprinklers can reduce the percentage of toxic nodes up to 41% at methane fire and up to 10% at PCV fire, as compared to not enabling them. These results indicate that it is more challenging to evacuate at PVC fire than at methane fire. The simulation results in SGEP and SIEP justify the above conclusions where the success evacuation probability differences between methane fire and PVC fire are up to 39% (i.e., 100% and 61%) and 52.5% (i.e., 82.5% and 30%) for SGEP and SIEP, respectively. The simulation results also show that SGEP outperforms SIEP in terms of evacuation success probability at all simulation settings, especially when large number of evacuees are to be evacuated. At methane fire, the largest evacuation success probability difference between SGEP and SIEP is 68.1% at 1000 evacuees, 0.3 FED threshold and without sprinklers. At PVC fire, the largest difference is 50% at 1000 evacuees, 0.5 FED threshold and with sprinklers. These significant differences in evacuation success probability come from the evacuation congestion in SIEP. The evacuation scheduling approach based on accumulated smoke toxicity policy enables SGEP to circumvent the evacuation congestion, and to get better evacuation success probability. Besides identifying safe evacuation route and evacuation scheduling policy during congestion to evacuate more evacuees, another contribution of this paper is to identify the critical percentage of toxic nodes for safe fire evacuation and rescue operations.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Fires;Temperature sensors;Heating systems;Gases;Toxicology;Escalators;Methane;Mathematical models;Heuristic algorithms;Real-time systems;Hazardous areas;Emergency services;Smoke detectors;Safety;Individual evacuation;group evacuation;evacuation congestion;smoke sensors;fire evacuation planning and optimization</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2022.3221757</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Yen, Hong-Hsu, Lin, Cheng-Han, Tsao, Hung-Wei</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>The 33rd IEEE International Conference on Plasma Science, 2006. ICOPS 2006. IEEE Conference Record - Abstracts.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Soil treatment using ozone and nitric monoxide produced by pulsed discharge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>206-206</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Summary form only given. Usage of methyl bromide (CH3Br) for soil sterilization in the agricultural fields was forbidden due to its green house effect. Development of alternative soil sterilization techniques has been an urgent subject. We have proposed a soil treatment using ozone and nitric monoxide (NO) gas. Sterilization of soil using ozone gas seems attractive due to its strong sterilization and no residual toxicity properties. Ozone of high concentration was produced by pulsed RF discharge with high yield, and optimal condition was surveyed under various electrode configurations, applied voltages and duty ratios. NO gas was generated using pulsed arc discharges in the air. Effects of ozone and NO gas on the soil properties such as pH, electrical conductivity (EC), oxidation reduction potential (Eh), and temperature was examined using various sensors. Ozone injected into soil decreased pH and increased EC and temperature of the soil due to oxidization. It was also found ozone sterilized some kinds of bacteria in the soil</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Temperature sensors;Radio frequency;Electrodes;Voltage;Pulse generation;Arc discharges;Soil properties;Conductivity;Oxidation;Gas detectors</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10.1109/PLASMA.2006.1707078</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Ikegami, T., Ogata, K., Ebihara, K., Nagira, K., Kai, T.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Proceedings of the 2014 Biomedical Sciences and Engineering Conference</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Revealing the structural details of huntingtin fibrils using small-angle neutron scattering</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Huntington's disease (HD) involves an abnormally expanded polyglutamine sequence in huntingtin (Htt) protein that makes it highly susceptible to aggregate. A current challenge is to map out the aggregation pathway by identifying the various precursor structures and establishing their roles in the disease. While it is highly suspected that the early oligomer species are responsible for toxicity, characterizing the end-state fibril structure is also a necessary step toward discovering the underlying mechanisms of early aggregate formation. We are actively investigating Htt structural kinetics and the resulting fibrils using small-angle neutron scattering (SANS). Here, we report on the characterization of fibrils from Htt-exon1-Q40 - a disease relevant Htt peptide as it contains a pathologically expanded glutamine repeat sequence and a proline-rich region. SANS on the end-state fibrils revealed structural similarities to the Perutz β-helixhollow cylinder model as opposed to the more commonly observed steric zipper structure found for many other amyloid fibrils. The structural details we have identified contribute toward elucidating the mechanism of pathological Htt assembly.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Storage area networks;Scattering;Peptides;Diseases;Proteins;Aggregates;Detectors;Huntington's disease;polyglutamine;amyloid;protein aggregation;solution scattering</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>10.1109/BSEC.2014.6867753</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Stanley, Christopher, McWilliams-Koeppen, Helen P., Perevozchikova, Tatiana, Rowe, Erica L., Berthelier, Valerie</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hydrogen Sulfide (H2S) Gas Sensor: A Review</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2394-2407</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>This paper reviews the most important sensor-based methods that are commonly utilized for detecting and measuring hydrogen sulfide (H2S) gas. It identifies a quite comprehensive overview related to the toxicity and hazardous effects of H2S gas from an individual and environmental health protection perspective. Furthermore, the description, classification, and comparison of the H2S gas sensing technologies are exhibited according to many criteria, such as sensing material, working principle, limit of detection, response time, operating range of gas concentrations, sensor stability, sensitivity, and selectivity toward H2S. Finally, it identifies the limitations of these sensors, suggests the most probably successful future technologies, and highlights the most promising approaches that have been developed for achieving inexpensive hydrogen sulfide gas sensors which could be employed in widespread miniaturized detectors in the real-world applications.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Gas detectors;Hydrogen;Temperature sensors;Electrolytes;Optical fiber sensors;H₂S sensor;toxic gas;sensor-based methods;sensor response time</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>10.1109/JSEN.2018.2886131</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ali, Fajr I. M., Awwad, Falah, Greish, Yaser E., Mahmoud, Saleh T.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Stability of Metal Oxide Semiconductor Gas Sensors: A Review</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5470-5481</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Sensor stability is defined as the ability to maintain a relatively stable and repeatable signal over a sufficient period. Long-term stability for gas sensors is an essential capability for carrying out long-term data collection of human exhaled breath, environmental monitoring and other gas detection in the modern electronic information age. This article reviews the research advances on the stability of metal oxide semiconductor gas sensors in the past five years. The impact of structure, environment, toxicity and sensor array on the sensor stability are discussed. Then, the improvement schemes of existing materials and structure design are summarized. The achievements of structure doping, humidity, anti-poisoning and photoactivation are overviewed. Finally, the great significance of elucidating the sensing mechanism and carrying out the life acceleration test for future research and development is pointed out.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sensors;Thermal stability;Metals;Stability criteria;Temperature sensors;Gas detectors;Adsorption;Semiconductor;metal oxide;gas sensor;stability</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>10.1109/JSEN.2022.3148264</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Chai, Hongfeng, Zheng, Zichen, Liu, Kewei, Xu, Jinyong, Wu, Kaidi, Luo, Yifan, Liao, Hanlin, Debliquy, Marc, Zhang, Chao</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lead-Free CsCu2I3 Perovskite Nanostructured Networks Gas Sensor for Selective Detection of Trace Nitrogen Dioxide at Room Temperature</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>14677-14684</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>The development of low power consumption sensing devices for detecting trace toxic gases is imperative for a wide variety of applications. Recently, hybrid organic–inorganic lead perovskite-based sensors have been fabricated to demonstrate their potential for gas sensing application. However, the poor repeatability and toxicity of lead halide perovskites severely restrict their further practical applications. Here, the lead-free all-inorganic cesium copper iodide (CsCu2I3) perovskite nanostructured networks are deposited onto interdigital electrodes patterned substrate as the gas sensitive layer via simply spin coating the precursors. The sensor exhibites excellent room temperature NO2 sensing properties, including ultra-low limit of detection, excellent repeatability, and good selectivity. Dynamic testing displays the good cycling repeatability of the sensor for ppb level NO2. The ultra-sensitive NO2 sensing behavior of the CsCu2I3 nanostructure networks are mainly attributed to the unique nanoneedle clusters network structure and large amount of cation vacancies on the perovskite surface. In conclusion, the high sensitivity and environmentally friendly CsCu2I3 sensor shows great potential for trace indoor pollutants detection and breathe analysis for disease diagnosis.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sensors;Gas detectors;Lead;Temperature sensors;Substrates;Crystals;Solvents;Lead-free halide perovskite;gas sensors;crystal microstructure;nitrogen dioxide;energy consumption</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>10.1109/JSEN.2021.3071744</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Sun, Xia, Yang, Jie, Wu, Zhilin, Meng, Gang, Guo, Xuezheng, Kuang, Delin, Xiong, Lian, Qu, Weijie, Fang, Xiaodong, Yang, Xi, Tang, Xiaosheng, He, Yong</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A Silver-Based Miniature Gas Sensor for Hydrogen Sulfide Detection</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3469-3474</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Hydrogen sulfide ( $\text{H}_{{2}}\text{S}$ ) exists widely in many industrial processes and natural environments. Due to its high toxicity and flammable, detection of $\text{H}_{{2}}\text{S}$ is critical for safety and health at work place and industrial process control. In this article, we report a novel miniature gas sensor, which has a high selectivity in $\text{H}_{{2}}\text{S}$ detection. The sensor is based on the principle of silver reacting with $\text{H}_{{2}}\text{S}$ with a strict condition and a fast speed at high temperature. The limit of detection (LOD) is 1.4 parts-per-million (ppm) in ambient conditions and can be further reduced to ~ppb-lever by improving the working temperature and suppressing the noise of the sensor system. Compared with the conventional $\text{H}_{{2}}\text{S}$ sensors, this sensor has advantages of miniaturization, low cost, high selectivity, and excluding electrolytes in the analyte detection.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sensors;Gas detectors;Temperature sensors;Electrodes;Silver;Heating systems;Stress;Gas sensor;high selectivity;hydrogen sulfide (H₂S) detection;silver</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>10.1109/JSEN.2022.3233815</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Tian, Xin, Li, Yan, Zhao, Jia, Tao, Jifang</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>High-Performance Conductometric Acetone Gas Sensor Based on Co3O4/ZnO Nanorods With Abundant Oxygen Vacancies</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1-12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Acetone exhibits flammability, explosiveness, and toxicity, rendering it a multifaceted hazard. Moreover, acetone serves as a vital biomarker for diabetes. Consequently, the demand for low-concentration acetone gas detection sensors is increasingly pressing in numerous sectors, including industrial processes and medical applications. In this study, we report a novel sensor based on Co3O4/ZnO nanorods and investigate the influence of Co doping-induced oxygen vacancies and the presence of Co3O4 on the sensing properties. The sensor was prepared through a simple one-step hydrothermal method and named Co/ZnONRs. The morphology, composition, and oxygen vacancy defects of the Co/ZnONRs were characterized using various techniques including scanning electron microscopy (SEM), transmission electron microscopy (TEM), energy dispersive spectroscopy (EDS), X-ray diffraction (XRD), X-ray photoelectron spectroscopy (XPS), and electron paramagnetic resonance (EPR). Characterization and gas sensing test results have demonstrated that the 1-Co/ZnONRs sensor outperformed previously reported designs, exhibiting high response values, short response times, good selectivity, and low detection limits toward acetone. Specifically, at 250 °C, the sensor demonstrated a response value of 833.33 toward 100-ppm acetone, which is an increase of ten times compared to the response value of ZnONRs, while the optimal operating temperature decreased by 50 °C, and the detection limit was as low as 100 ppb. The improved sensor performance is attributed to several factors such as changes in resistance caused by active sites generated by Co doping ZnO to form oxygen vacancies, the Co3O4/ZnO heterojunction, the high specific surface area of Co/ZnONRs, and the unique catalytic activity of Co3O4. These findings demonstrate the potential of our innovative design to significantly improve the accuracy and efficiency of gas sensors used in industrial processes and medical diagnoses.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sensors;Zinc oxide;II-VI semiconductor materials;Gas detectors;Temperature sensors;Metals;Heterojunctions;Acetone gas sensors;high response value;oxygen vacancies;p-n heterostructure;rapid response</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>10.1109/TIM.2023.3347801</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Yuan, Zhenyu, Zhang, Jian, Zhu, Hongmin, Wang, Huai, Meng, Fanli</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2014 IEEE Global Communications Conference</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GuidedTracker: Track the victims with access logs to finding malicious web pages</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>564-569</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Malicious web pages have become a malignant tumour for the Internet, which spread malicious code, steal people's private information, and deliver spamming advertisements. And how to distinguish them from the huge number of normal web pages effectively remains a huge challenge in the era of big data. To detect malicious pages, one needs to first collect candidate web pages that are live on the web; then filter massive legitimate pages using fast filters and finally examine the remaining pages using precisely but slow analyzer. However, there are new challenges recently for these conventional techniques, including large scale, imbalance data and the usage of cloaking techniques. To cope with these challenges, the malicious URL detection system should perform more efficiently. In this paper, we propose a system, named GuidedTracker, to search for suspicious malicious pages. GuidedTracker starts from the seed set which includes known malicious pages. Then, it automatically figures out those victims based on the seed set and the visit relation database. Finally, the access records of these victims are used to identify other malicious pages. In this way, GuidedTracker increase the percentages of malicious URLs in the input URL stream submitted to the precisely analyzer. To our best knowledge, GuidedTracker is the first to introduce visit relations to tackle the malicious URL detection problem. The introduction of visit relations limits the scope of URL inspection and enables this approach to have the ability of self-learning. Experimental results show that the overall "toxicity" can be improved by 6.97%-50.38% compared with full inspection of access logs.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Web pages;Uniform resource locators;Inspection;Security;Detectors;Information systems</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>10.1109/GLOCOM.2014.7036867</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sha, Hongzhou, Liu, Qingyun, Zhou, Zhou, Zheng, Chao</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Single-X-Ray Sensitive Energy-Binning Dosimeter for Closed-Loop Cancer External-Beam Radiotherapy</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1-14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>X-ray radiation dose delivered during cancer external-beam radiotherapy (EBRT) is nonlinear with the biological effect imparted to cancer cells and neighboring healthy tissues. This oftentimes leads to insufficient damage to cancer cells and excessive damage to the surrounding healthy tissues, both increasing toxicity and the risk of cancer recurrence later in life for many patients. An understanding of X-ray energy deposition at the single-X-ray level is, therefore, necessary to improve the efficacy of cancer radiotherapy. Here, we present a single-X-ray sensitive, energy-binning integrated circuit (IC)-based dosimeter, fabricated in 180 nm CMOS technology, to enable closed-loop cancer radiotherapy for personalized patient treatment. We use small 3 $\times$ 3 $\mu$m reverse-biased deep n-well (DNWELL) diodes designed at low capacitive nodes (C$_{\mathrm{diode}}$), such that the miniscule charge deposition (Q$_{\mathrm{dep}}$) from single X-rays at these nodes generates a voltage signal large enough to be sensed (V$_{\mathrm{diode}}$ = Q$_{\mathrm{dep}}$/C$_{\mathrm{diode}}$). In order to enable single-X-ray energy resolution without significant power and area, we implement an analog voltage supply (AVDDH) $\sim$log resistor grid to create a sensitivity gradient across the 76 $\times$ 55 pixel array. The IC-based dosimeter was tested under scenarios consistent with the treatment of shallow lesions (e.g., skin cancer, superficial tumors, intraoperative radiotherapy). The system is highly linear with radiation dose (10–250 cGy) and accurately tracks dose up to 2 cm deep in tissue for 50-, 70-, and 100-kV X-ray beams.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Cancer;Radiation therapy;Photonics;Energy resolution;Electrons;Uncertainty;Scattering;Energy measurement;Detectors;Biological tissues;X-ray;dosimeter;cancer;radiotherapy;closed-loop</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>10.1109/JSSC.2025.3529848</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Lall, Rahul, Lee, Kyoungtae, Cunha, Adam, Abergel, Rebecca, Seo, Youngho, Niknejad, Ali M., Anwar, Mekhail</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Highly Selective and Sensitive Ag-Based Hydrogen Sulfide Gas Sensor Based on Precise Chip Temperature Management</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3859-3866</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Hydrogen sulfide (H2S) detection with a high selectivity and fast response is necessary due to its strong toxicity both to the environment and humans. In this article, we present design, fabrication, and characterization of a Silver (Ag)-based H2S gas sensor, in which the temperature uniformity of sensitive materials has an important effect on their detection sensitivity, selectivity and reliability. Therefore, we introduce a new type of micro-hotplate chip design with an isothermal hot area (\pm 15 °C at 350 °C) accounts for 90% of the total heating area of the sensor, effectively resolving the issue of area uniform heating in gas sensor design. Results show that a response time for 100 ppm H2S is around 2 s under 350 °C operating temperature, and the limit of detection (LOD) is 134 parts-per-billion (ppb) in ambient conditions. Moreover, selectivity tests indicate that the sensor has poor response to interfering analytes such as hydrogen, methane, carbon monoxide, ammonia, and sulfur dioxide, and their average selectivity coefficients of H2S are greater than 88. This Ag-based H2S sensor offers advantages such as remarkable potential for mass production due to its easy to manufacture and high performance.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Heating systems;Temperature sensors;Sensors;Gas detectors;Temperature distribution;Electrodes;Silver;Fast response;gas sensor;hydrogen sulfide (H₂S);low limit of detection (LOD);ultrahigh selectivity</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10.1109/TED.2024.3384138</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Tian, Xin, Tao, Jifang, Xu, Maosen, Yuan, Hongye, Zhao, Jia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>'Challenges of Our Changing Global Environment'. Conference Proceedings. OCEANS '95 MTS/IEEE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Contaminant flux measurements across the sediment-water interface in San Diego Bay</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1700-1713 vol.3</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Marine sediments often serve as important sinks for anthropogenic contaminants from the overlying water column. In certain cases the sediments may also serve as contaminant sources, releasing contaminants later when water column and/or pore water conditions change. Variations in sediment chemical and physical properties make it impossible to rely on bulk sediment contaminant concentrations alone to predict contaminant flux, bioavailability, and therefore toxicity. In situ measurements of contaminant fluxes across the sediment-water interface provide important information for addressing these concerns. The Navy has recently developed the Benthic Flux Sampling Device (BFSD) to assess contaminant fluxes across the sediment-water interface. The BFSD has recently undergone several modifications to allow improved operation. The oxygen regulation system has been modified to allow better control of chamber oxygen levels. Some deployments have utilized real-time sensors that allow monitoring of BFSD operations and offer the potential to serve as field-screening tools to evaluate contaminant mobility. These real-time sensor techniques include potentiometric stripping analysis (PSA) for metals and laser-induced fluorescence (LIF) for hydrocarbon contaminants. As part of the Navy's ongoing program to monitor environmental conditions in San Diego Bay, this study used multiple deployments of the BFSD to assess contaminant fluxes across the sediment-water interface. In coastal areas, directly measured BFSD fluxes are often preferable to model-dependent fluxes obtained from pore water profiles. Target contaminants in this study included the trace metals Cd, Cu, Ni, Pb, and Zn. Initial results indicate fluxes occur both into and out of the sediments depending on contaminant type and site location. The metals that showed the most consistent flux out of the sediments included Zn and Mn.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Pollution measurement;Sediments;Water resources;Zinc;Toxic chemicals;Sampling methods;Control systems;Gas detectors;Laser modes;Fluorescence</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10.1109/OCEANS.1995.528740</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Leather, J.M., Chadwick, D.B., Koon, G.H.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022 IEEE 12th International Conference on Control System, Computing and Engineering (ICCSCE)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Design and Development of Fuzzy Logic Based Car Cabin Pollution Monitoring System</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>191-196</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>This paper presents the development of air quality monitoring system based on internet of things, IOT application to control the concentration of carbon dioxide gas and carbon monoxide gas in car cabin. Carbon monoxide is one most dangerous gas and nowadays there were many fatal cases happen caused by the gas leakage, while increasing of the concentration carbon dioxide will reduce oxygen level in the air, thus can cause the driver to be fatigue, and sleepiness. Moreover, gas detector usually not installed in nowadays car. To develop smart air quality monitoring system, Arduino MKR 1010, CJMCU 811(carbon dioxide sensor), MQ-7(carbon monoxide sensor), Adafruit io application, IFTTT, Webhooks, Telegram, and MATLAB fuzzy logic toolbox were used. Furthermore, Fuzzy Logic Controller (FLC) was used to analyze the input and produce the system's output decisions on the level of gas toxicities. The five levels of gas toxicities are very safe, safe, warning, high, and very high. The decision of gas level will be sent to IOT application which is Adafruit and then triggered the three types of LED indicator, power window motor, buzzer, and signal to webhook to send the Telegram. Besides, Adafruit IO also act as the platform to present the data of gases graph pattern. In addition, MATLAB fuzzy logic toolbox was used to make comparison between the result of Arduino analysis with the value of simulation. Furthermore, Telegram messenger also act as a medium to notify the users. Based on the system evaluation, this system has performed well in analysing the gas concentrating inputs and show stable IOT interactions in triggering related warning and safety devices.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Fuzzy logic;Toxicology;Carbon dioxide;Air quality;Carbon monoxide;Internet of Things;Automobiles;Fuzzy Logic;Adafruit IO;IFTT;MATLAB</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10.1109/ICCSCE54767.2022.9935658</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Bin Kamal Abdul, Muhammad Zaim, Nayan, Badrul Amin, Yahaya, Saiful Zaimy, Boudville, Rozan, Ahmad, Khairul Azman, Husin, Nurul Izza Binti</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>Chemical Agent Detection Using GC-IMS: A Comparative Study</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>451-460</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Low-cost and portable gas chromatography-ion mobility spectrometry (GC-IMS) has been used to identify chemicals. To accomplish this, two parameters are used. The first parameter relates to the GC retention time (RT), which is the residence time of an analyte as it passes through the column. Different chemicals have different RTs. The second parameter is the drift time of ionized species derived for a specific chemical in the IMS. Due to molecular cross section, mass, and chemical properties, different chemicals produce ionized species with different drift times. Combining these two parameters, GC-IMS has been shown to distinguish between different chemicals. Chemical detection and identification are not that easy in practice. First, the concentration of chemicals may be very low, and it may be difficult to determine the chromatographic RT and IMS drift time for chemicals under these conditions. Second, the specific ionized species produced in the IMS are concentration dependent and the IMS spectra obtained at different analyte concentrations are not easily predictable. For example, at low concentrations, chemicals seldom form dimers following atmospheric pressure ionization. The possible presence of either monomers or dimers in the IMS drift tube may confuse the chemical classification process. Third, it is important to estimate the concentration of chemicals, as this information will provide toxicity, and the linear dynamic range of typical IMS systems is relatively low In this study, an image processing approach to enhancing the GC-IMS signal quality is introduced. The key idea in this approach is to treat GC-IMS data as an image and then apply an anomaly detector to detect and enhance abnormal regions in the image. The results of a study that compares a conventional approach to chemical detection and the introduced image enhancement approach are presented. Receiver operating characteristics curves were used to compare the detection performances of the two approaches.</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Spectroscopy;Biomedical engineering;Engineering in medicine and biology;Image edge detection;Chemical processes;Image processing;Underwater vehicles;Biomedical imaging;Ionization;Toxic chemicals;Gas chromatography (GC);ion mobility spectrometry (IMS);image processing;receiver operating characteristic (ROC)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>10.1109/JSEN.2009.2038128</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Kwan, Chiman, Snyder, A. Peter, Erickson, Richard P., Smith, Philip A., Maswadeh, Waleed M., Ayhan, Bulent, Jensen, Janet L., Jensen, James O., Tripathi, Ashish</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>2006 First International Symposium on Environment Identities and Mediterranean Area</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Analysis of smoke during prescribed fires</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>18-23</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>This work consist in sampling and analyzing smoke released by typical Mediterranean vegetation during a fire. To proceed we used an experimental apparatus made of an air sampling pump with a cartridge filled with Tenaxreg TA. The sampling device was situated in a fixed place corresponding to the position of a fireman for the four studied stations. Analyses were performed at the laboratory by gas chromatography one day after the field experiment. Samples were Thermally Desorbed from the cartridges in the Gas Chromatography column coupled to a detector by Mass Spectrometry. We aim to characterize the risks related to the toxicity of smoke in actual conditions. Benzene, Toluene and Xylene (BTX) are highly toxic compounds that we propose to quantify in the smoke sampled during the fire.</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fires;Sampling methods;Cities and towns;Vegetation mapping;Performance analysis;Combustion;Fuels;Sea measurements;Gas chromatography;Blood</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>10.1109/ISEIMA.2006.345041</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Barboni, Toussaint, Chiaramonti, Nathalie, Leoni, Eric, Desjobert, Jean-Marie, Santoni, Paul-Antoine</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024 IEEE International Conference on Plasma Science (ICOPS)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Challenges and Opportunities in Cold Atmospheric Plasma Based (CAP) Based Fluorine Generation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1-1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Despite its high reactivity and toxicity requiring exceptional safety measures, fluorine gas plays a critical role in numerous industries. From intricate microchip fabrication in the semiconductor industry to strengthening tooth enamel in dentistry, its unique properties find diverse applications. However, storing high-pressure fluorine tanks poses significant safety risks. Cold atmospheric plasma (CAP) offers a promising alternative by generating fluorine on-demand, eliminating storage needs and minimizing human contact, while simultaneously presenting its own advantages for various fields. This shift towards safer, controlled generation methods like CAP paves the way for further unlocking fluorine’s immense potential across various sectors. A 2 MHz, six-electrode cold atmospheric plasma (CAP) device was designed and fabricated to generate fluorine from an Ar + CF4 gas mixture. Visual observation revealed a two-toned plasma flame, suggesting spatial variation in species distribution. Fluorine emission was confirmed using a Portasens III detector, while further analysis by optical emission spectroscopy (OES) revealed the presence of strong Fe I emission lines alongside other species of atmosphere and Ar I emission lines. Correlating OES findings with experimental data indicated that generated fluorine preferentially attacks the SS 304 CAP electrodes, hindering effective substrate etching. This study highlights the need for optimized CAP designs to minimize electrode etching and maximize fluorine utilization for efficient substrate treatment.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Electrodes;Visualization;Toxicology;Atmospheric measurements;Fluorine;Teeth;Etching</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10.1109/ICOPS58192.2024.10627347</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Kar, R., Bende, V., Sekar, V., Bhardwaj, R., Mascarenhas, M., Sharma, A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Object Detection Routine for Material Streams Combining RGB and Hyperspectral Reflectance Data Based on Guided Object Localization</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>11490-11498</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Electronic waste is the fastest growing type of scrap globally and is an important challenge due to its heterogeneity, intrinsic toxicity and potential environmental impact. With an objective of obtaining information on the composition of printed circuit boards (PCBs) through non-invasive analysis to aid in recycling and recovery of precious waste, the goal of this paper is to propose a scheme towards the fusion of RGB and hyperspectral data in object detection. State-of-art detectors come with their own set of challenges which make them inapplicable to PCB recycling. We introduce a method which promises to achieve object detection based on multi-sensor data by utilizing the hyperspectral data to localize components and compare the results to a conventional single-sensor (RGB) based approach.</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Object detection;Hyperspectral imaging;Recycling;Sensors;Spatial resolution;Training;Spectroscopy;hyperspectral imaging;object detection;guided object localization;faster-RCNN</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>10.1109/JSEN.2020.2996757</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Sudharshan, Vishnu, Seidel, Peter, Ghamisi, Pedram, Lorenz, Sandra, Fuchs, Margret, Fareedh, Junaidh Shaik, Neubert, Peer, Schubert, Stefan, Gloaguen, Richard</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Study of a Lead-Free Perovskite MA3Bi2Br9 Narrowband Photodetector for Blue-Light Detection</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Narrowband photodetection is crucial for various applications, including machine vision, bioimaging, and environmental monitoring. While lead-based perovskites offer promising properties, their toxicity and instability limit their practical applications. Here, we report a high-performance narrowband photodetector (PD) based on lead-free perovskite MA3Bi2Br9 single crystal. By employing the charge collection narrowing (CCN) mechanism, we realized a device exhibiting a pronounced peak response centered at 470 nm, characterized by a narrow full-width at half-maximum (FWHM) of merely 24 nm. The detector exhibits a high responsivity of 0.102 mA/W and a specific detectivity of 2.21 × 108 Jones at 15 V bias. Additionally, it demonstrates a high spectral rejection ratio (SRR) of 34 for 470-nm light relative to 510-nm light. To quantify blue-light hazards, we established a numerical relationship between weighted irradiance and photocurrent. Our results highlight the potential of lead-free perovskite-based PDs for practical applications in narrowband detection and environmental monitoring.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Crystals;Narrowband;Perovskites;Absorption;Photoconductivity;Lead;Evaporation;Lighting;Photonics;Photonic band gap;Blue-light detection;charge collection narrowing (CCN);lead-free perovskite;narrowband detection</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10.1109/TED.2025.3538740</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Wu, Zhi-Cheng, Liu, Jia, Lu, Xiu-Dong, Wang, Jiang, Huang, Zhi-Yu, Zhu, Zhi-Guo, Wang, Cong-Cong, Wang, Yan, Liang, Feng-Xia, Luo, Lin-Bao</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Environmental Applications of Carbon Nanomaterials-Based Devices</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Functionalized Carbon Nanomaterials for Impending Pharmaceutical Applications: A Green and Sustainable Vision</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>423-438</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Summary &lt;p&gt;Nanomaterials have unique properties and features because of their small size. Functionalized carbon nanomaterials have exceptional and unique properties for diverse applications. They are used in pharmaceuticals, specifically in analyzing and curing malevolent cells, infectious diseases, tissue engineering, and disorders in the central nervous system. These types of unique features are beneficial to infiltrate biomembranes and decrease their toxicity.&lt;/p&gt; &lt;p&gt;This chapter recapitulates several pharmaceutical applications of nanomaterials for the healings of numerous diseases. In this chapter, CNTs will be functionalized into covalent and noncovalent functionalized CNTs. Its potential applications in treating difficult issues in pharmacy and connected risks in nanodrugs will also be discussed. There is wide use of CNTs in the various field like water treatment, environmental remediation, batteries, supercapacitor, electric cable and wire, textile, solar cell, microelectronic, optical power detector pharmacy, and medicine because CNTs have large surface areas and adsorbing capacity. It is substantially important for the local and worldwide conspirators while providing ecological remedial measures.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Drugs;Carbon;Surface treatment;Carbon nanotubes;Medical diagnostic imaging;Drug delivery;Biomedical imaging</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10.1002/9783527830978.ch18</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Kumar, Vaneet, Saruchi, Kumar, Harsh</t>
         </is>
       </c>
     </row>
